--- a/scripts/cards.xlsx
+++ b/scripts/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\navarog\projects\wyrmsearch\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7257C1DD-0B3E-4056-AF3A-8766EB2C8137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702BFF11-A14F-4E06-9AAC-5622663DDB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="379">
   <si>
     <t>type</t>
   </si>
@@ -397,9 +397,6 @@
   </si>
   <si>
     <t>If you have at least as many dragons in your Golden Grotto as your left neighbor, gain [DragonCard].</t>
-  </si>
-  <si>
-    <t>Adventurer.</t>
   </si>
   <si>
     <t>Spry Horned Lung Dragon</t>
@@ -1533,19 +1530,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1601,9 +1598,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1636,9 +1633,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1671,9 +1668,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1709,9 +1706,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1744,9 +1741,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1779,9 +1776,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1814,9 +1811,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1849,9 +1846,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1860,7 +1857,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -1884,9 +1881,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1922,9 +1919,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1960,9 +1957,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1995,9 +1992,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2030,9 +2027,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2065,9 +2062,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2100,9 +2097,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2135,9 +2132,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2173,9 +2170,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2211,9 +2208,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2246,9 +2243,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2284,9 +2281,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2319,9 +2316,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -2354,9 +2351,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2389,9 +2386,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2424,9 +2421,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -2459,9 +2456,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2494,9 +2491,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2529,9 +2526,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -2564,9 +2561,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -2599,9 +2596,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -2634,9 +2631,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -2669,9 +2666,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -2704,9 +2701,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -2739,9 +2736,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -2774,9 +2771,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -2809,9 +2806,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -2844,9 +2841,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -2879,9 +2876,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -2914,9 +2911,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -2955,9 +2952,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -3002,9 +2999,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -3040,9 +3037,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -3081,9 +3078,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -3119,9 +3116,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -3154,9 +3151,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -3192,9 +3189,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -3227,9 +3224,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -3237,8 +3234,11 @@
       <c r="C47" t="s">
         <v>120</v>
       </c>
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -3265,9 +3265,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -3279,7 +3279,7 @@
         <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -3300,18 +3300,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" t="s">
         <v>125</v>
-      </c>
-      <c r="D49" t="s">
-        <v>126</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
@@ -3335,18 +3335,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
         <v>106</v>
@@ -3385,18 +3385,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" t="s">
         <v>128</v>
-      </c>
-      <c r="D51" t="s">
-        <v>129</v>
       </c>
       <c r="E51" t="s">
         <v>29</v>
@@ -3420,18 +3420,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" t="s">
         <v>130</v>
-      </c>
-      <c r="D52" t="s">
-        <v>131</v>
       </c>
       <c r="E52" t="s">
         <v>106</v>
@@ -3461,18 +3461,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" t="s">
         <v>132</v>
-      </c>
-      <c r="D53" t="s">
-        <v>133</v>
       </c>
       <c r="E53" t="s">
         <v>106</v>
@@ -3499,18 +3499,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
         <v>134</v>
-      </c>
-      <c r="D54" t="s">
-        <v>135</v>
       </c>
       <c r="E54" t="s">
         <v>29</v>
@@ -3537,18 +3537,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" t="s">
         <v>136</v>
-      </c>
-      <c r="D55" t="s">
-        <v>137</v>
       </c>
       <c r="E55" t="s">
         <v>106</v>
@@ -3584,18 +3584,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
         <v>138</v>
-      </c>
-      <c r="D56" t="s">
-        <v>139</v>
       </c>
       <c r="E56" t="s">
         <v>29</v>
@@ -3625,18 +3625,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" t="s">
         <v>140</v>
-      </c>
-      <c r="D57" t="s">
-        <v>141</v>
       </c>
       <c r="E57" t="s">
         <v>29</v>
@@ -3666,18 +3666,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" t="s">
         <v>142</v>
-      </c>
-      <c r="D58" t="s">
-        <v>143</v>
       </c>
       <c r="E58" t="s">
         <v>16</v>
@@ -3704,18 +3704,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" t="s">
         <v>144</v>
-      </c>
-      <c r="D59" t="s">
-        <v>145</v>
       </c>
       <c r="E59" t="s">
         <v>29</v>
@@ -3742,18 +3742,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" t="s">
         <v>147</v>
-      </c>
-      <c r="D60" t="s">
-        <v>148</v>
       </c>
       <c r="E60" t="s">
         <v>106</v>
@@ -3783,18 +3783,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" t="s">
         <v>149</v>
-      </c>
-      <c r="D61" t="s">
-        <v>150</v>
       </c>
       <c r="E61" t="s">
         <v>16</v>
@@ -3821,18 +3821,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" t="s">
         <v>151</v>
-      </c>
-      <c r="D62" t="s">
-        <v>152</v>
       </c>
       <c r="E62" t="s">
         <v>29</v>
@@ -3865,18 +3865,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s">
         <v>16</v>
@@ -3900,21 +3900,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" t="s">
         <v>154</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>155</v>
-      </c>
-      <c r="E64" t="s">
-        <v>156</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -3944,18 +3944,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" t="s">
         <v>157</v>
-      </c>
-      <c r="D65" t="s">
-        <v>158</v>
       </c>
       <c r="E65" t="s">
         <v>16</v>
@@ -3979,18 +3979,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" t="s">
         <v>159</v>
-      </c>
-      <c r="D66" t="s">
-        <v>160</v>
       </c>
       <c r="E66" t="s">
         <v>16</v>
@@ -4017,18 +4017,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" t="s">
         <v>161</v>
-      </c>
-      <c r="D67" t="s">
-        <v>162</v>
       </c>
       <c r="E67" t="s">
         <v>29</v>
@@ -4055,18 +4055,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" t="s">
         <v>163</v>
-      </c>
-      <c r="D68" t="s">
-        <v>164</v>
       </c>
       <c r="E68" t="s">
         <v>29</v>
@@ -4096,18 +4096,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" t="s">
         <v>165</v>
-      </c>
-      <c r="D69" t="s">
-        <v>166</v>
       </c>
       <c r="E69" t="s">
         <v>29</v>
@@ -4131,21 +4131,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" t="s">
         <v>167</v>
       </c>
-      <c r="D70" t="s">
-        <v>168</v>
-      </c>
       <c r="E70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F70">
         <v>3</v>
@@ -4166,21 +4166,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" t="s">
         <v>169</v>
       </c>
-      <c r="D71" t="s">
-        <v>170</v>
-      </c>
       <c r="E71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F71">
         <v>5</v>
@@ -4207,18 +4207,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" t="s">
         <v>171</v>
-      </c>
-      <c r="D72" t="s">
-        <v>172</v>
       </c>
       <c r="E72" t="s">
         <v>106</v>
@@ -4248,21 +4248,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" t="s">
         <v>173</v>
       </c>
-      <c r="D73" t="s">
-        <v>174</v>
-      </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F73">
         <v>5</v>
@@ -4286,18 +4286,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" t="s">
         <v>175</v>
-      </c>
-      <c r="D74" t="s">
-        <v>176</v>
       </c>
       <c r="E74" t="s">
         <v>29</v>
@@ -4324,18 +4324,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E75" t="s">
         <v>106</v>
@@ -4362,18 +4362,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
       <c r="C76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" t="s">
         <v>179</v>
-      </c>
-      <c r="D76" t="s">
-        <v>180</v>
       </c>
       <c r="E76" t="s">
         <v>29</v>
@@ -4400,18 +4400,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
       <c r="C77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" t="s">
         <v>181</v>
-      </c>
-      <c r="D77" t="s">
-        <v>182</v>
       </c>
       <c r="E77" t="s">
         <v>16</v>
@@ -4438,18 +4438,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
       <c r="C78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" t="s">
         <v>183</v>
-      </c>
-      <c r="D78" t="s">
-        <v>184</v>
       </c>
       <c r="E78" t="s">
         <v>29</v>
@@ -4479,18 +4479,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
       <c r="C79" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" t="s">
         <v>185</v>
-      </c>
-      <c r="D79" t="s">
-        <v>186</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -4514,21 +4514,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
       <c r="C80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" t="s">
         <v>187</v>
       </c>
-      <c r="D80" t="s">
-        <v>188</v>
-      </c>
       <c r="E80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4552,18 +4552,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B81">
         <v>80</v>
       </c>
       <c r="C81" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81" t="s">
         <v>189</v>
-      </c>
-      <c r="D81" t="s">
-        <v>190</v>
       </c>
       <c r="E81" t="s">
         <v>29</v>
@@ -4593,18 +4593,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
       <c r="C82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" t="s">
         <v>191</v>
-      </c>
-      <c r="D82" t="s">
-        <v>192</v>
       </c>
       <c r="E82" t="s">
         <v>106</v>
@@ -4631,18 +4631,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B83">
         <v>82</v>
       </c>
       <c r="C83" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83" t="s">
         <v>193</v>
-      </c>
-      <c r="D83" t="s">
-        <v>194</v>
       </c>
       <c r="E83" t="s">
         <v>29</v>
@@ -4666,18 +4666,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B84">
         <v>83</v>
       </c>
       <c r="C84" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" t="s">
         <v>195</v>
-      </c>
-      <c r="D84" t="s">
-        <v>196</v>
       </c>
       <c r="E84" t="s">
         <v>16</v>
@@ -4704,18 +4704,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
       <c r="C85" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" t="s">
         <v>197</v>
-      </c>
-      <c r="D85" t="s">
-        <v>198</v>
       </c>
       <c r="E85" t="s">
         <v>29</v>
@@ -4742,18 +4742,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B86">
         <v>85</v>
       </c>
       <c r="C86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86" t="s">
         <v>199</v>
-      </c>
-      <c r="D86" t="s">
-        <v>200</v>
       </c>
       <c r="E86" t="s">
         <v>16</v>
@@ -4780,18 +4780,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B87">
         <v>86</v>
       </c>
       <c r="C87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" t="s">
         <v>201</v>
-      </c>
-      <c r="D87" t="s">
-        <v>202</v>
       </c>
       <c r="E87" t="s">
         <v>106</v>
@@ -4818,18 +4818,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B88">
         <v>87</v>
       </c>
       <c r="C88" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" t="s">
         <v>203</v>
-      </c>
-      <c r="D88" t="s">
-        <v>204</v>
       </c>
       <c r="E88" t="s">
         <v>106</v>
@@ -4859,18 +4859,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B89">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E89" t="s">
         <v>16</v>
@@ -4894,18 +4894,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B90">
         <v>89</v>
       </c>
       <c r="C90" t="s">
+        <v>205</v>
+      </c>
+      <c r="D90" t="s">
         <v>206</v>
-      </c>
-      <c r="D90" t="s">
-        <v>207</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -4935,18 +4935,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
       <c r="C91" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" t="s">
         <v>208</v>
-      </c>
-      <c r="D91" t="s">
-        <v>209</v>
       </c>
       <c r="E91" t="s">
         <v>29</v>
@@ -4976,18 +4976,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B92">
         <v>91</v>
       </c>
       <c r="C92" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" t="s">
         <v>210</v>
-      </c>
-      <c r="D92" t="s">
-        <v>211</v>
       </c>
       <c r="E92" t="s">
         <v>106</v>
@@ -5023,18 +5023,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B93">
         <v>92</v>
       </c>
       <c r="C93" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" t="s">
         <v>212</v>
-      </c>
-      <c r="D93" t="s">
-        <v>213</v>
       </c>
       <c r="E93" t="s">
         <v>29</v>
@@ -5058,18 +5058,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B94">
         <v>93</v>
       </c>
       <c r="C94" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" t="s">
         <v>214</v>
-      </c>
-      <c r="D94" t="s">
-        <v>215</v>
       </c>
       <c r="E94" t="s">
         <v>106</v>
@@ -5093,18 +5093,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B95">
         <v>94</v>
       </c>
       <c r="C95" t="s">
+        <v>215</v>
+      </c>
+      <c r="D95" t="s">
         <v>216</v>
-      </c>
-      <c r="D95" t="s">
-        <v>217</v>
       </c>
       <c r="E95" t="s">
         <v>29</v>
@@ -5134,21 +5134,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B96">
         <v>95</v>
       </c>
       <c r="C96" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" t="s">
         <v>218</v>
       </c>
-      <c r="D96" t="s">
-        <v>219</v>
-      </c>
       <c r="E96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F96">
         <v>3</v>
@@ -5175,18 +5175,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E97" t="s">
         <v>29</v>
@@ -5216,18 +5216,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B98">
         <v>97</v>
       </c>
       <c r="C98" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" t="s">
         <v>221</v>
-      </c>
-      <c r="D98" t="s">
-        <v>222</v>
       </c>
       <c r="E98" t="s">
         <v>106</v>
@@ -5260,18 +5260,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B99">
         <v>98</v>
       </c>
       <c r="C99" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" t="s">
         <v>223</v>
-      </c>
-      <c r="D99" t="s">
-        <v>224</v>
       </c>
       <c r="E99" t="s">
         <v>106</v>
@@ -5295,18 +5295,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B100">
         <v>99</v>
       </c>
       <c r="C100" t="s">
+        <v>224</v>
+      </c>
+      <c r="D100" t="s">
         <v>225</v>
-      </c>
-      <c r="D100" t="s">
-        <v>226</v>
       </c>
       <c r="E100" t="s">
         <v>16</v>
@@ -5336,18 +5336,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
       <c r="C101" t="s">
+        <v>226</v>
+      </c>
+      <c r="D101" t="s">
         <v>227</v>
-      </c>
-      <c r="D101" t="s">
-        <v>228</v>
       </c>
       <c r="E101" t="s">
         <v>29</v>
@@ -5374,18 +5374,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B102">
         <v>101</v>
       </c>
       <c r="C102" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" t="s">
         <v>229</v>
-      </c>
-      <c r="D102" t="s">
-        <v>230</v>
       </c>
       <c r="E102" t="s">
         <v>106</v>
@@ -5424,18 +5424,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B103">
         <v>102</v>
       </c>
       <c r="C103" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103" t="s">
         <v>231</v>
-      </c>
-      <c r="D103" t="s">
-        <v>232</v>
       </c>
       <c r="E103" t="s">
         <v>106</v>
@@ -5465,18 +5465,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B104">
         <v>103</v>
       </c>
       <c r="C104" t="s">
+        <v>232</v>
+      </c>
+      <c r="D104" t="s">
         <v>233</v>
       </c>
       <c r="E104" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="F104">
         <v>3</v>
@@ -5497,21 +5500,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B105">
         <v>104</v>
       </c>
       <c r="C105" t="s">
+        <v>234</v>
+      </c>
+      <c r="D105" t="s">
         <v>235</v>
       </c>
-      <c r="D105" t="s">
-        <v>236</v>
-      </c>
       <c r="E105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -5535,18 +5538,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B106">
         <v>105</v>
       </c>
       <c r="C106" t="s">
+        <v>236</v>
+      </c>
+      <c r="D106" t="s">
         <v>237</v>
-      </c>
-      <c r="D106" t="s">
-        <v>238</v>
       </c>
       <c r="E106" t="s">
         <v>16</v>
@@ -5570,18 +5573,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B107">
         <v>106</v>
       </c>
       <c r="C107" t="s">
+        <v>238</v>
+      </c>
+      <c r="D107" t="s">
         <v>239</v>
-      </c>
-      <c r="D107" t="s">
-        <v>240</v>
       </c>
       <c r="E107" t="s">
         <v>106</v>
@@ -5611,21 +5614,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B108">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -5646,18 +5649,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B109">
         <v>108</v>
       </c>
       <c r="C109" t="s">
+        <v>241</v>
+      </c>
+      <c r="D109" t="s">
         <v>242</v>
-      </c>
-      <c r="D109" t="s">
-        <v>243</v>
       </c>
       <c r="E109" t="s">
         <v>16</v>
@@ -5684,21 +5687,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B110">
         <v>109</v>
       </c>
       <c r="C110" t="s">
+        <v>243</v>
+      </c>
+      <c r="D110" t="s">
         <v>244</v>
       </c>
-      <c r="D110" t="s">
-        <v>245</v>
-      </c>
       <c r="E110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F110">
         <v>5</v>
@@ -5725,18 +5728,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B111">
         <v>110</v>
       </c>
       <c r="C111" t="s">
+        <v>245</v>
+      </c>
+      <c r="D111" t="s">
         <v>246</v>
-      </c>
-      <c r="D111" t="s">
-        <v>247</v>
       </c>
       <c r="E111" t="s">
         <v>29</v>
@@ -5760,21 +5763,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B112">
         <v>111</v>
       </c>
       <c r="C112" t="s">
+        <v>247</v>
+      </c>
+      <c r="D112" t="s">
         <v>248</v>
       </c>
-      <c r="D112" t="s">
-        <v>249</v>
-      </c>
       <c r="E112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -5798,18 +5801,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B113">
         <v>112</v>
       </c>
       <c r="C113" t="s">
+        <v>249</v>
+      </c>
+      <c r="D113" t="s">
         <v>250</v>
-      </c>
-      <c r="D113" t="s">
-        <v>251</v>
       </c>
       <c r="E113" t="s">
         <v>106</v>
@@ -5845,18 +5848,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B114">
         <v>113</v>
       </c>
       <c r="C114" t="s">
+        <v>251</v>
+      </c>
+      <c r="D114" t="s">
         <v>252</v>
-      </c>
-      <c r="D114" t="s">
-        <v>253</v>
       </c>
       <c r="E114" t="s">
         <v>16</v>
@@ -5883,18 +5886,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B115">
         <v>114</v>
       </c>
       <c r="C115" t="s">
+        <v>253</v>
+      </c>
+      <c r="D115" t="s">
         <v>254</v>
-      </c>
-      <c r="D115" t="s">
-        <v>255</v>
       </c>
       <c r="E115" t="s">
         <v>29</v>
@@ -5918,18 +5921,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B116">
         <v>115</v>
       </c>
       <c r="C116" t="s">
+        <v>255</v>
+      </c>
+      <c r="D116" t="s">
         <v>256</v>
-      </c>
-      <c r="D116" t="s">
-        <v>257</v>
       </c>
       <c r="E116" t="s">
         <v>16</v>
@@ -5959,18 +5962,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B117">
         <v>116</v>
       </c>
       <c r="C117" t="s">
+        <v>257</v>
+      </c>
+      <c r="D117" t="s">
         <v>258</v>
-      </c>
-      <c r="D117" t="s">
-        <v>259</v>
       </c>
       <c r="E117" t="s">
         <v>16</v>
@@ -5997,21 +6000,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B118">
         <v>117</v>
       </c>
       <c r="C118" t="s">
+        <v>259</v>
+      </c>
+      <c r="D118" t="s">
         <v>260</v>
       </c>
-      <c r="D118" t="s">
-        <v>261</v>
-      </c>
       <c r="E118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -6038,15 +6041,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B119">
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D119" t="s">
         <v>102</v>
@@ -6079,18 +6082,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B120">
         <v>119</v>
       </c>
       <c r="C120" t="s">
+        <v>262</v>
+      </c>
+      <c r="D120" t="s">
         <v>263</v>
-      </c>
-      <c r="D120" t="s">
-        <v>264</v>
       </c>
       <c r="E120" t="s">
         <v>106</v>
@@ -6129,21 +6132,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B121">
         <v>120</v>
       </c>
       <c r="C121" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" t="s">
         <v>265</v>
       </c>
-      <c r="D121" t="s">
-        <v>266</v>
-      </c>
       <c r="E121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F121">
         <v>4</v>
@@ -6170,18 +6173,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B122">
         <v>121</v>
       </c>
       <c r="C122" t="s">
+        <v>266</v>
+      </c>
+      <c r="D122" t="s">
         <v>267</v>
-      </c>
-      <c r="D122" t="s">
-        <v>268</v>
       </c>
       <c r="E122" t="s">
         <v>16</v>
@@ -6208,18 +6211,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
       <c r="C123" t="s">
+        <v>268</v>
+      </c>
+      <c r="D123" t="s">
         <v>269</v>
-      </c>
-      <c r="D123" t="s">
-        <v>270</v>
       </c>
       <c r="E123" t="s">
         <v>106</v>
@@ -6246,18 +6249,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B124">
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E124" t="s">
         <v>29</v>
@@ -6287,18 +6290,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B125">
         <v>124</v>
       </c>
       <c r="C125" t="s">
+        <v>271</v>
+      </c>
+      <c r="D125" t="s">
         <v>272</v>
-      </c>
-      <c r="D125" t="s">
-        <v>273</v>
       </c>
       <c r="E125" t="s">
         <v>106</v>
@@ -6337,18 +6340,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
       <c r="C126" t="s">
+        <v>273</v>
+      </c>
+      <c r="D126" t="s">
         <v>274</v>
-      </c>
-      <c r="D126" t="s">
-        <v>275</v>
       </c>
       <c r="E126" t="s">
         <v>29</v>
@@ -6372,18 +6375,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B127">
         <v>126</v>
       </c>
       <c r="C127" t="s">
+        <v>275</v>
+      </c>
+      <c r="D127" t="s">
         <v>276</v>
-      </c>
-      <c r="D127" t="s">
-        <v>277</v>
       </c>
       <c r="E127" t="s">
         <v>29</v>
@@ -6410,18 +6413,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B128">
         <v>127</v>
       </c>
       <c r="C128" t="s">
+        <v>277</v>
+      </c>
+      <c r="D128" t="s">
         <v>278</v>
-      </c>
-      <c r="D128" t="s">
-        <v>279</v>
       </c>
       <c r="E128" t="s">
         <v>29</v>
@@ -6445,18 +6448,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B129">
         <v>128</v>
       </c>
       <c r="C129" t="s">
+        <v>279</v>
+      </c>
+      <c r="D129" t="s">
         <v>280</v>
-      </c>
-      <c r="D129" t="s">
-        <v>281</v>
       </c>
       <c r="E129" t="s">
         <v>29</v>
@@ -6483,18 +6486,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B130">
         <v>129</v>
       </c>
       <c r="C130" t="s">
+        <v>281</v>
+      </c>
+      <c r="D130" t="s">
         <v>282</v>
-      </c>
-      <c r="D130" t="s">
-        <v>283</v>
       </c>
       <c r="E130" t="s">
         <v>106</v>
@@ -6527,21 +6530,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B131">
         <v>130</v>
       </c>
       <c r="C131" t="s">
+        <v>283</v>
+      </c>
+      <c r="D131" t="s">
         <v>284</v>
       </c>
-      <c r="D131" t="s">
-        <v>285</v>
-      </c>
       <c r="E131" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F131">
         <v>2</v>
@@ -6562,18 +6565,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B132">
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E132" t="s">
         <v>106</v>
@@ -6612,18 +6615,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B133">
         <v>132</v>
       </c>
       <c r="C133" t="s">
+        <v>287</v>
+      </c>
+      <c r="D133" t="s">
         <v>288</v>
-      </c>
-      <c r="D133" t="s">
-        <v>289</v>
       </c>
       <c r="E133" t="s">
         <v>106</v>
@@ -6662,18 +6665,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B134">
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E134" t="s">
         <v>29</v>
@@ -6703,18 +6706,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B135">
         <v>134</v>
       </c>
       <c r="C135" t="s">
+        <v>290</v>
+      </c>
+      <c r="D135" t="s">
         <v>291</v>
-      </c>
-      <c r="D135" t="s">
-        <v>292</v>
       </c>
       <c r="E135" t="s">
         <v>106</v>
@@ -6753,21 +6756,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B136">
         <v>135</v>
       </c>
       <c r="C136" t="s">
+        <v>292</v>
+      </c>
+      <c r="D136" t="s">
         <v>293</v>
       </c>
-      <c r="D136" t="s">
-        <v>294</v>
-      </c>
       <c r="E136" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -6794,18 +6797,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B137">
         <v>136</v>
       </c>
       <c r="C137" t="s">
+        <v>294</v>
+      </c>
+      <c r="D137" t="s">
         <v>295</v>
-      </c>
-      <c r="D137" t="s">
-        <v>296</v>
       </c>
       <c r="E137" t="s">
         <v>29</v>
@@ -6832,18 +6835,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B138">
         <v>137</v>
       </c>
       <c r="C138" t="s">
+        <v>296</v>
+      </c>
+      <c r="D138" t="s">
         <v>297</v>
-      </c>
-      <c r="D138" t="s">
-        <v>298</v>
       </c>
       <c r="E138" t="s">
         <v>29</v>
@@ -6870,21 +6873,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B139">
         <v>138</v>
       </c>
       <c r="C139" t="s">
+        <v>298</v>
+      </c>
+      <c r="D139" t="s">
         <v>299</v>
       </c>
-      <c r="D139" t="s">
-        <v>300</v>
-      </c>
       <c r="E139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -6905,21 +6908,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B140">
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D140" t="s">
         <v>115</v>
       </c>
       <c r="E140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F140">
         <v>4</v>
@@ -6946,18 +6949,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B141">
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E141" t="s">
         <v>16</v>
@@ -6984,21 +6987,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B142">
         <v>141</v>
       </c>
       <c r="C142" t="s">
+        <v>302</v>
+      </c>
+      <c r="D142" t="s">
         <v>303</v>
       </c>
-      <c r="D142" t="s">
-        <v>304</v>
-      </c>
       <c r="E142" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F142">
         <v>3</v>
@@ -7025,21 +7028,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B143">
         <v>142</v>
       </c>
       <c r="C143" t="s">
+        <v>304</v>
+      </c>
+      <c r="D143" t="s">
         <v>305</v>
       </c>
-      <c r="D143" t="s">
-        <v>306</v>
-      </c>
       <c r="E143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F143">
         <v>3</v>
@@ -7066,18 +7069,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B144">
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E144" t="s">
         <v>29</v>
@@ -7104,18 +7107,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B145">
         <v>144</v>
       </c>
       <c r="C145" t="s">
+        <v>307</v>
+      </c>
+      <c r="D145" t="s">
         <v>308</v>
-      </c>
-      <c r="D145" t="s">
-        <v>309</v>
       </c>
       <c r="E145" t="s">
         <v>106</v>
@@ -7154,18 +7157,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B146">
         <v>145</v>
       </c>
       <c r="C146" t="s">
+        <v>309</v>
+      </c>
+      <c r="D146" t="s">
         <v>310</v>
-      </c>
-      <c r="D146" t="s">
-        <v>311</v>
       </c>
       <c r="E146" t="s">
         <v>106</v>
@@ -7189,18 +7192,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B147">
         <v>146</v>
       </c>
       <c r="C147" t="s">
+        <v>311</v>
+      </c>
+      <c r="D147" t="s">
         <v>312</v>
-      </c>
-      <c r="D147" t="s">
-        <v>313</v>
       </c>
       <c r="E147" t="s">
         <v>16</v>
@@ -7224,18 +7227,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B148">
         <v>147</v>
       </c>
       <c r="C148" t="s">
+        <v>313</v>
+      </c>
+      <c r="D148" t="s">
         <v>314</v>
-      </c>
-      <c r="D148" t="s">
-        <v>315</v>
       </c>
       <c r="E148" t="s">
         <v>16</v>
@@ -7262,18 +7265,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B149">
         <v>148</v>
       </c>
       <c r="C149" t="s">
+        <v>315</v>
+      </c>
+      <c r="D149" t="s">
         <v>316</v>
-      </c>
-      <c r="D149" t="s">
-        <v>317</v>
       </c>
       <c r="E149" t="s">
         <v>29</v>
@@ -7300,18 +7303,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B150">
         <v>149</v>
       </c>
       <c r="C150" t="s">
+        <v>317</v>
+      </c>
+      <c r="D150" t="s">
         <v>318</v>
-      </c>
-      <c r="D150" t="s">
-        <v>319</v>
       </c>
       <c r="E150" t="s">
         <v>106</v>
@@ -7347,18 +7350,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B151">
         <v>150</v>
       </c>
       <c r="C151" t="s">
+        <v>319</v>
+      </c>
+      <c r="D151" t="s">
         <v>320</v>
-      </c>
-      <c r="D151" t="s">
-        <v>321</v>
       </c>
       <c r="E151" t="s">
         <v>106</v>
@@ -7394,18 +7397,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B152">
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D152" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E152" t="s">
         <v>29</v>
@@ -7432,18 +7435,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B153">
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D153" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E153" t="s">
         <v>29</v>
@@ -7467,21 +7470,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B154">
         <v>153</v>
       </c>
       <c r="C154" t="s">
+        <v>323</v>
+      </c>
+      <c r="D154" t="s">
         <v>324</v>
       </c>
-      <c r="D154" t="s">
-        <v>325</v>
-      </c>
       <c r="E154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -7508,21 +7511,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B155">
         <v>154</v>
       </c>
       <c r="C155" t="s">
+        <v>325</v>
+      </c>
+      <c r="D155" t="s">
         <v>326</v>
       </c>
-      <c r="D155" t="s">
-        <v>327</v>
-      </c>
       <c r="E155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F155">
         <v>3</v>
@@ -7549,18 +7552,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B156">
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E156" t="s">
         <v>29</v>
@@ -7587,18 +7590,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B157">
         <v>156</v>
       </c>
       <c r="C157" t="s">
+        <v>328</v>
+      </c>
+      <c r="D157" t="s">
         <v>329</v>
-      </c>
-      <c r="D157" t="s">
-        <v>330</v>
       </c>
       <c r="E157" t="s">
         <v>16</v>
@@ -7622,18 +7625,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B158">
         <v>157</v>
       </c>
       <c r="C158" t="s">
+        <v>330</v>
+      </c>
+      <c r="D158" t="s">
         <v>331</v>
-      </c>
-      <c r="D158" t="s">
-        <v>332</v>
       </c>
       <c r="E158" t="s">
         <v>16</v>
@@ -7660,18 +7663,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B159">
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D159" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E159" t="s">
         <v>29</v>
@@ -7698,18 +7701,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B160">
         <v>159</v>
       </c>
       <c r="C160" t="s">
+        <v>333</v>
+      </c>
+      <c r="D160" t="s">
         <v>334</v>
-      </c>
-      <c r="D160" t="s">
-        <v>335</v>
       </c>
       <c r="E160" t="s">
         <v>29</v>
@@ -7736,21 +7739,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B161">
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D161" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E161" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F161">
         <v>3</v>
@@ -7771,21 +7774,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B162">
         <v>161</v>
       </c>
       <c r="C162" t="s">
+        <v>336</v>
+      </c>
+      <c r="D162" t="s">
         <v>337</v>
       </c>
-      <c r="D162" t="s">
-        <v>338</v>
-      </c>
       <c r="E162" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F162">
         <v>4</v>
@@ -7809,18 +7812,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B163">
         <v>162</v>
       </c>
       <c r="C163" t="s">
+        <v>338</v>
+      </c>
+      <c r="D163" t="s">
         <v>339</v>
-      </c>
-      <c r="D163" t="s">
-        <v>340</v>
       </c>
       <c r="E163" t="s">
         <v>16</v>
@@ -7847,18 +7850,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B164">
         <v>163</v>
       </c>
       <c r="C164" t="s">
+        <v>340</v>
+      </c>
+      <c r="D164" t="s">
         <v>341</v>
-      </c>
-      <c r="D164" t="s">
-        <v>342</v>
       </c>
       <c r="E164" t="s">
         <v>29</v>
@@ -7885,21 +7888,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B165">
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D165" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F165">
         <v>4</v>
@@ -7923,18 +7926,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B166">
         <v>165</v>
       </c>
       <c r="C166" t="s">
+        <v>343</v>
+      </c>
+      <c r="D166" t="s">
         <v>344</v>
-      </c>
-      <c r="D166" t="s">
-        <v>345</v>
       </c>
       <c r="E166" t="s">
         <v>16</v>
@@ -7961,18 +7964,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B167">
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D167" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E167" t="s">
         <v>29</v>
@@ -7996,18 +7999,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B168">
         <v>167</v>
       </c>
       <c r="C168" t="s">
+        <v>346</v>
+      </c>
+      <c r="D168" t="s">
         <v>347</v>
-      </c>
-      <c r="D168" t="s">
-        <v>348</v>
       </c>
       <c r="E168" t="s">
         <v>106</v>
@@ -8031,18 +8034,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B169">
         <v>168</v>
       </c>
       <c r="C169" t="s">
+        <v>348</v>
+      </c>
+      <c r="D169" t="s">
         <v>349</v>
-      </c>
-      <c r="D169" t="s">
-        <v>350</v>
       </c>
       <c r="E169" t="s">
         <v>29</v>
@@ -8066,18 +8069,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B170">
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D170" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E170" t="s">
         <v>29</v>
@@ -8101,18 +8104,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B171">
         <v>170</v>
       </c>
       <c r="C171" t="s">
+        <v>351</v>
+      </c>
+      <c r="D171" t="s">
         <v>352</v>
-      </c>
-      <c r="D171" t="s">
-        <v>353</v>
       </c>
       <c r="E171" t="s">
         <v>29</v>
@@ -8136,18 +8139,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B172">
         <v>171</v>
       </c>
       <c r="C172" t="s">
+        <v>353</v>
+      </c>
+      <c r="D172" t="s">
         <v>354</v>
-      </c>
-      <c r="D172" t="s">
-        <v>355</v>
       </c>
       <c r="E172" t="s">
         <v>29</v>
@@ -8174,18 +8177,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B173">
         <v>172</v>
       </c>
       <c r="C173" t="s">
+        <v>355</v>
+      </c>
+      <c r="D173" t="s">
         <v>356</v>
-      </c>
-      <c r="D173" t="s">
-        <v>357</v>
       </c>
       <c r="E173" t="s">
         <v>16</v>
@@ -8221,18 +8224,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B174">
         <v>173</v>
       </c>
       <c r="C174" t="s">
+        <v>357</v>
+      </c>
+      <c r="D174" t="s">
         <v>358</v>
-      </c>
-      <c r="D174" t="s">
-        <v>359</v>
       </c>
       <c r="E174" t="s">
         <v>29</v>
@@ -8268,18 +8271,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B175">
         <v>174</v>
       </c>
       <c r="C175" t="s">
+        <v>359</v>
+      </c>
+      <c r="D175" t="s">
         <v>360</v>
-      </c>
-      <c r="D175" t="s">
-        <v>361</v>
       </c>
       <c r="E175" t="s">
         <v>16</v>
@@ -8303,21 +8306,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B176">
         <v>175</v>
       </c>
       <c r="C176" t="s">
+        <v>361</v>
+      </c>
+      <c r="D176" t="s">
         <v>362</v>
       </c>
-      <c r="D176" t="s">
-        <v>363</v>
-      </c>
       <c r="E176" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F176">
         <v>4</v>
@@ -8338,18 +8341,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B177">
         <v>176</v>
       </c>
       <c r="C177" t="s">
+        <v>363</v>
+      </c>
+      <c r="D177" t="s">
         <v>364</v>
-      </c>
-      <c r="D177" t="s">
-        <v>365</v>
       </c>
       <c r="E177" t="s">
         <v>29</v>
@@ -8373,18 +8376,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B178">
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D178" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E178" t="s">
         <v>29</v>
@@ -8408,18 +8411,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B179">
         <v>178</v>
       </c>
       <c r="C179" t="s">
+        <v>366</v>
+      </c>
+      <c r="D179" t="s">
         <v>367</v>
-      </c>
-      <c r="D179" t="s">
-        <v>368</v>
       </c>
       <c r="E179" t="s">
         <v>16</v>
@@ -8446,18 +8449,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B180">
         <v>179</v>
       </c>
       <c r="C180" t="s">
+        <v>368</v>
+      </c>
+      <c r="D180" t="s">
         <v>369</v>
-      </c>
-      <c r="D180" t="s">
-        <v>370</v>
       </c>
       <c r="E180" t="s">
         <v>106</v>
@@ -8493,21 +8496,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B181">
         <v>180</v>
       </c>
       <c r="C181" t="s">
+        <v>370</v>
+      </c>
+      <c r="D181" t="s">
         <v>371</v>
       </c>
-      <c r="D181" t="s">
-        <v>372</v>
-      </c>
       <c r="E181" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F181">
         <v>4</v>
@@ -8531,18 +8534,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B182">
         <v>181</v>
       </c>
       <c r="C182" t="s">
+        <v>372</v>
+      </c>
+      <c r="D182" t="s">
         <v>373</v>
-      </c>
-      <c r="D182" t="s">
-        <v>374</v>
       </c>
       <c r="E182" t="s">
         <v>16</v>
@@ -8566,18 +8569,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B183">
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D183" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E183" t="s">
         <v>29</v>
@@ -8604,18 +8607,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B184">
         <v>183</v>
       </c>
       <c r="C184" t="s">
+        <v>375</v>
+      </c>
+      <c r="D184" t="s">
         <v>376</v>
-      </c>
-      <c r="D184" t="s">
-        <v>377</v>
       </c>
       <c r="E184" t="s">
         <v>106</v>

--- a/scripts/cards.xlsx
+++ b/scripts/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\navarog\projects\wyrmsearch\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702BFF11-A14F-4E06-9AAC-5622663DDB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7370EB-C193-4207-910A-8071381E95A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>Keening Amphiptere</t>
   </si>
   <si>
-    <t>Tuck [DragonCard] from your hand here. Each [DragonCard] tucked under this dragon is worth 1 [VP-1] at game end. When the 3rd [DragonCard] is tucked, also gain [DragonGuild][DragonGuild].</t>
-  </si>
-  <si>
     <t>Chittering Dragonette</t>
   </si>
   <si>
@@ -1162,6 +1159,9 @@
   </si>
   <si>
     <t>Tuck [DragonCard] from your hand here. Any time you tuck [DragonCard] here, gain [AnyResource]. When the 3rd [DragonCard] is tucked, also gain [DragonCard][DragonGuild].</t>
+  </si>
+  <si>
+    <t>Tuck [DragonCard] from your hand here. Each [DragonCard] tucked under this dragon is worth [VP-1] at game end. When the 3rd [DragonCard] is tucked, also gain [DragonGuild][DragonGuild].</t>
   </si>
 </sst>
 </file>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1857,7 +1857,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2219,7 +2219,7 @@
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>378</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -2245,16 +2245,16 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -2283,16 +2283,16 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
         <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
         <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -2353,16 +2353,16 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
         <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
@@ -2388,16 +2388,16 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
         <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>71</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
@@ -2423,16 +2423,16 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
         <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
@@ -2458,16 +2458,16 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
         <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
@@ -2493,16 +2493,16 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
         <v>76</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -2528,16 +2528,16 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
         <v>78</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
@@ -2563,16 +2563,16 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
@@ -2598,16 +2598,16 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
         <v>59</v>
@@ -2633,16 +2633,16 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
@@ -2668,16 +2668,16 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
@@ -2703,16 +2703,16 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
         <v>29</v>
@@ -2738,16 +2738,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E34" t="s">
         <v>29</v>
@@ -2773,16 +2773,16 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E35" t="s">
         <v>29</v>
@@ -2808,16 +2808,16 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E36" t="s">
         <v>29</v>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
         <v>29</v>
@@ -2861,7 +2861,7 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -2878,16 +2878,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -2896,7 +2896,7 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -2913,16 +2913,16 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
@@ -2931,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2954,25 +2954,25 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
         <v>104</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>105</v>
-      </c>
-      <c r="E40" t="s">
-        <v>106</v>
       </c>
       <c r="F40">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -3001,16 +3001,16 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
         <v>107</v>
-      </c>
-      <c r="D41" t="s">
-        <v>108</v>
       </c>
       <c r="E41" t="s">
         <v>29</v>
@@ -3019,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -3039,25 +3039,25 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
         <v>110</v>
       </c>
-      <c r="D42" t="s">
-        <v>111</v>
-      </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -3080,25 +3080,25 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
         <v>112</v>
       </c>
-      <c r="D43" t="s">
-        <v>113</v>
-      </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -3118,16 +3118,16 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
         <v>114</v>
-      </c>
-      <c r="D44" t="s">
-        <v>115</v>
       </c>
       <c r="E44" t="s">
         <v>29</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -3153,25 +3153,25 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
         <v>116</v>
       </c>
-      <c r="D45" t="s">
-        <v>117</v>
-      </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -3191,16 +3191,16 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
         <v>118</v>
-      </c>
-      <c r="D46" t="s">
-        <v>119</v>
       </c>
       <c r="E46" t="s">
         <v>29</v>
@@ -3209,7 +3209,7 @@
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H46">
         <v>5</v>
@@ -3226,25 +3226,25 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" t="s">
         <v>120</v>
       </c>
-      <c r="D47" t="s">
-        <v>121</v>
-      </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -3267,16 +3267,16 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" t="s">
         <v>122</v>
-      </c>
-      <c r="D48" t="s">
-        <v>123</v>
       </c>
       <c r="E48" t="s">
         <v>29</v>
@@ -3285,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -3302,16 +3302,16 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" t="s">
         <v>124</v>
-      </c>
-      <c r="D49" t="s">
-        <v>125</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
@@ -3320,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -3337,25 +3337,25 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -3387,16 +3387,16 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" t="s">
         <v>127</v>
-      </c>
-      <c r="D51" t="s">
-        <v>128</v>
       </c>
       <c r="E51" t="s">
         <v>29</v>
@@ -3405,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -3422,25 +3422,25 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" t="s">
         <v>129</v>
       </c>
-      <c r="D52" t="s">
-        <v>130</v>
-      </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -3463,25 +3463,25 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" t="s">
         <v>131</v>
       </c>
-      <c r="D53" t="s">
-        <v>132</v>
-      </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -3501,16 +3501,16 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
         <v>133</v>
-      </c>
-      <c r="D54" t="s">
-        <v>134</v>
       </c>
       <c r="E54" t="s">
         <v>29</v>
@@ -3519,7 +3519,7 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -3539,25 +3539,25 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" t="s">
         <v>135</v>
       </c>
-      <c r="D55" t="s">
-        <v>136</v>
-      </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -3586,16 +3586,16 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" t="s">
         <v>137</v>
-      </c>
-      <c r="D56" t="s">
-        <v>138</v>
       </c>
       <c r="E56" t="s">
         <v>29</v>
@@ -3604,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H56">
         <v>4</v>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" t="s">
         <v>139</v>
-      </c>
-      <c r="D57" t="s">
-        <v>140</v>
       </c>
       <c r="E57" t="s">
         <v>29</v>
@@ -3645,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -3668,16 +3668,16 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
         <v>141</v>
-      </c>
-      <c r="D58" t="s">
-        <v>142</v>
       </c>
       <c r="E58" t="s">
         <v>16</v>
@@ -3686,7 +3686,7 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -3706,16 +3706,16 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" t="s">
         <v>143</v>
-      </c>
-      <c r="D59" t="s">
-        <v>144</v>
       </c>
       <c r="E59" t="s">
         <v>29</v>
@@ -3724,7 +3724,7 @@
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -3744,25 +3744,25 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" t="s">
         <v>146</v>
       </c>
-      <c r="D60" t="s">
-        <v>147</v>
-      </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F60">
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -3785,16 +3785,16 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" t="s">
         <v>148</v>
-      </c>
-      <c r="D61" t="s">
-        <v>149</v>
       </c>
       <c r="E61" t="s">
         <v>16</v>
@@ -3803,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -3823,16 +3823,16 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" t="s">
         <v>150</v>
-      </c>
-      <c r="D62" t="s">
-        <v>151</v>
       </c>
       <c r="E62" t="s">
         <v>29</v>
@@ -3841,7 +3841,7 @@
         <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -3867,16 +3867,16 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
         <v>16</v>
@@ -3885,7 +3885,7 @@
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -3902,25 +3902,25 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" t="s">
         <v>153</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>154</v>
-      </c>
-      <c r="E64" t="s">
-        <v>155</v>
       </c>
       <c r="F64">
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H64">
         <v>4</v>
@@ -3946,16 +3946,16 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" t="s">
         <v>156</v>
-      </c>
-      <c r="D65" t="s">
-        <v>157</v>
       </c>
       <c r="E65" t="s">
         <v>16</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -3981,16 +3981,16 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" t="s">
         <v>158</v>
-      </c>
-      <c r="D66" t="s">
-        <v>159</v>
       </c>
       <c r="E66" t="s">
         <v>16</v>
@@ -3999,7 +3999,7 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -4019,16 +4019,16 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" t="s">
         <v>160</v>
-      </c>
-      <c r="D67" t="s">
-        <v>161</v>
       </c>
       <c r="E67" t="s">
         <v>29</v>
@@ -4037,7 +4037,7 @@
         <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -4057,16 +4057,16 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" t="s">
         <v>162</v>
-      </c>
-      <c r="D68" t="s">
-        <v>163</v>
       </c>
       <c r="E68" t="s">
         <v>29</v>
@@ -4075,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -4098,16 +4098,16 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" t="s">
         <v>164</v>
-      </c>
-      <c r="D69" t="s">
-        <v>165</v>
       </c>
       <c r="E69" t="s">
         <v>29</v>
@@ -4116,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -4133,25 +4133,25 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" t="s">
         <v>166</v>
       </c>
-      <c r="D70" t="s">
-        <v>167</v>
-      </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -4168,25 +4168,25 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" t="s">
         <v>168</v>
       </c>
-      <c r="D71" t="s">
-        <v>169</v>
-      </c>
       <c r="E71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F71">
         <v>5</v>
       </c>
       <c r="G71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -4209,25 +4209,25 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" t="s">
         <v>170</v>
       </c>
-      <c r="D72" t="s">
-        <v>171</v>
-      </c>
       <c r="E72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F72">
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -4250,25 +4250,25 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" t="s">
         <v>172</v>
       </c>
-      <c r="D73" t="s">
-        <v>173</v>
-      </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F73">
         <v>5</v>
       </c>
       <c r="G73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -4288,16 +4288,16 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" t="s">
         <v>174</v>
-      </c>
-      <c r="D74" t="s">
-        <v>175</v>
       </c>
       <c r="E74" t="s">
         <v>29</v>
@@ -4306,7 +4306,7 @@
         <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -4326,25 +4326,25 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F75">
         <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -4364,16 +4364,16 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
       <c r="C76" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" t="s">
         <v>178</v>
-      </c>
-      <c r="D76" t="s">
-        <v>179</v>
       </c>
       <c r="E76" t="s">
         <v>29</v>
@@ -4382,7 +4382,7 @@
         <v>5</v>
       </c>
       <c r="G76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -4402,16 +4402,16 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
       <c r="C77" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" t="s">
         <v>180</v>
-      </c>
-      <c r="D77" t="s">
-        <v>181</v>
       </c>
       <c r="E77" t="s">
         <v>16</v>
@@ -4420,7 +4420,7 @@
         <v>5</v>
       </c>
       <c r="G77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -4440,16 +4440,16 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
       <c r="C78" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" t="s">
         <v>182</v>
-      </c>
-      <c r="D78" t="s">
-        <v>183</v>
       </c>
       <c r="E78" t="s">
         <v>29</v>
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -4481,16 +4481,16 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
       <c r="C79" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" t="s">
         <v>184</v>
-      </c>
-      <c r="D79" t="s">
-        <v>185</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -4499,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -4516,25 +4516,25 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
       <c r="C80" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" t="s">
         <v>186</v>
       </c>
-      <c r="D80" t="s">
-        <v>187</v>
-      </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -4554,16 +4554,16 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B81">
         <v>80</v>
       </c>
       <c r="C81" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" t="s">
         <v>188</v>
-      </c>
-      <c r="D81" t="s">
-        <v>189</v>
       </c>
       <c r="E81" t="s">
         <v>29</v>
@@ -4572,7 +4572,7 @@
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -4595,25 +4595,25 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
       <c r="C82" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" t="s">
         <v>190</v>
       </c>
-      <c r="D82" t="s">
-        <v>191</v>
-      </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F82">
         <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -4633,16 +4633,16 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B83">
         <v>82</v>
       </c>
       <c r="C83" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" t="s">
         <v>192</v>
-      </c>
-      <c r="D83" t="s">
-        <v>193</v>
       </c>
       <c r="E83" t="s">
         <v>29</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -4668,16 +4668,16 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B84">
         <v>83</v>
       </c>
       <c r="C84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" t="s">
         <v>194</v>
-      </c>
-      <c r="D84" t="s">
-        <v>195</v>
       </c>
       <c r="E84" t="s">
         <v>16</v>
@@ -4686,7 +4686,7 @@
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -4706,16 +4706,16 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
       <c r="C85" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" t="s">
         <v>196</v>
-      </c>
-      <c r="D85" t="s">
-        <v>197</v>
       </c>
       <c r="E85" t="s">
         <v>29</v>
@@ -4724,7 +4724,7 @@
         <v>6</v>
       </c>
       <c r="G85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -4744,16 +4744,16 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B86">
         <v>85</v>
       </c>
       <c r="C86" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" t="s">
         <v>198</v>
-      </c>
-      <c r="D86" t="s">
-        <v>199</v>
       </c>
       <c r="E86" t="s">
         <v>16</v>
@@ -4762,7 +4762,7 @@
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -4782,25 +4782,25 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B87">
         <v>86</v>
       </c>
       <c r="C87" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" t="s">
         <v>200</v>
       </c>
-      <c r="D87" t="s">
-        <v>201</v>
-      </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F87">
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -4820,25 +4820,25 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B88">
         <v>87</v>
       </c>
       <c r="C88" t="s">
+        <v>201</v>
+      </c>
+      <c r="D88" t="s">
         <v>202</v>
       </c>
-      <c r="D88" t="s">
-        <v>203</v>
-      </c>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F88">
         <v>5</v>
       </c>
       <c r="G88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -4861,16 +4861,16 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B89">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E89" t="s">
         <v>16</v>
@@ -4879,7 +4879,7 @@
         <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -4896,16 +4896,16 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B90">
         <v>89</v>
       </c>
       <c r="C90" t="s">
+        <v>204</v>
+      </c>
+      <c r="D90" t="s">
         <v>205</v>
-      </c>
-      <c r="D90" t="s">
-        <v>206</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -4914,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -4937,16 +4937,16 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
       <c r="C91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" t="s">
         <v>207</v>
-      </c>
-      <c r="D91" t="s">
-        <v>208</v>
       </c>
       <c r="E91" t="s">
         <v>29</v>
@@ -4955,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -4978,25 +4978,25 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B92">
         <v>91</v>
       </c>
       <c r="C92" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" t="s">
         <v>209</v>
       </c>
-      <c r="D92" t="s">
-        <v>210</v>
-      </c>
       <c r="E92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F92">
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -5025,16 +5025,16 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B93">
         <v>92</v>
       </c>
       <c r="C93" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" t="s">
         <v>211</v>
-      </c>
-      <c r="D93" t="s">
-        <v>212</v>
       </c>
       <c r="E93" t="s">
         <v>29</v>
@@ -5043,7 +5043,7 @@
         <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -5060,25 +5060,25 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B94">
         <v>93</v>
       </c>
       <c r="C94" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" t="s">
         <v>213</v>
       </c>
-      <c r="D94" t="s">
-        <v>214</v>
-      </c>
       <c r="E94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F94">
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -5095,16 +5095,16 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B95">
         <v>94</v>
       </c>
       <c r="C95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" t="s">
         <v>215</v>
-      </c>
-      <c r="D95" t="s">
-        <v>216</v>
       </c>
       <c r="E95" t="s">
         <v>29</v>
@@ -5113,7 +5113,7 @@
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -5136,25 +5136,25 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B96">
         <v>95</v>
       </c>
       <c r="C96" t="s">
+        <v>216</v>
+      </c>
+      <c r="D96" t="s">
         <v>217</v>
       </c>
-      <c r="D96" t="s">
-        <v>218</v>
-      </c>
       <c r="E96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F96">
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -5177,16 +5177,16 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E97" t="s">
         <v>29</v>
@@ -5195,7 +5195,7 @@
         <v>2</v>
       </c>
       <c r="G97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -5218,25 +5218,25 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B98">
         <v>97</v>
       </c>
       <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" t="s">
         <v>220</v>
       </c>
-      <c r="D98" t="s">
-        <v>221</v>
-      </c>
       <c r="E98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F98">
         <v>5</v>
       </c>
       <c r="G98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -5262,25 +5262,25 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B99">
         <v>98</v>
       </c>
       <c r="C99" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" t="s">
         <v>222</v>
       </c>
-      <c r="D99" t="s">
-        <v>223</v>
-      </c>
       <c r="E99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F99">
         <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -5297,16 +5297,16 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B100">
         <v>99</v>
       </c>
       <c r="C100" t="s">
+        <v>223</v>
+      </c>
+      <c r="D100" t="s">
         <v>224</v>
-      </c>
-      <c r="D100" t="s">
-        <v>225</v>
       </c>
       <c r="E100" t="s">
         <v>16</v>
@@ -5315,7 +5315,7 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -5338,16 +5338,16 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
       <c r="C101" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" t="s">
         <v>226</v>
-      </c>
-      <c r="D101" t="s">
-        <v>227</v>
       </c>
       <c r="E101" t="s">
         <v>29</v>
@@ -5356,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="G101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -5376,25 +5376,25 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B102">
         <v>101</v>
       </c>
       <c r="C102" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" t="s">
         <v>228</v>
       </c>
-      <c r="D102" t="s">
-        <v>229</v>
-      </c>
       <c r="E102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F102">
         <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -5426,25 +5426,25 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B103">
         <v>102</v>
       </c>
       <c r="C103" t="s">
+        <v>229</v>
+      </c>
+      <c r="D103" t="s">
         <v>230</v>
       </c>
-      <c r="D103" t="s">
-        <v>231</v>
-      </c>
       <c r="E103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F103">
         <v>4</v>
       </c>
       <c r="G103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -5467,25 +5467,25 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B104">
         <v>103</v>
       </c>
       <c r="C104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D104" t="s">
         <v>232</v>
       </c>
-      <c r="D104" t="s">
-        <v>233</v>
-      </c>
       <c r="E104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F104">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -5502,25 +5502,25 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B105">
         <v>104</v>
       </c>
       <c r="C105" t="s">
+        <v>233</v>
+      </c>
+      <c r="D105" t="s">
         <v>234</v>
       </c>
-      <c r="D105" t="s">
-        <v>235</v>
-      </c>
       <c r="E105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -5540,16 +5540,16 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B106">
         <v>105</v>
       </c>
       <c r="C106" t="s">
+        <v>235</v>
+      </c>
+      <c r="D106" t="s">
         <v>236</v>
-      </c>
-      <c r="D106" t="s">
-        <v>237</v>
       </c>
       <c r="E106" t="s">
         <v>16</v>
@@ -5558,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -5575,25 +5575,25 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B107">
         <v>106</v>
       </c>
       <c r="C107" t="s">
+        <v>237</v>
+      </c>
+      <c r="D107" t="s">
         <v>238</v>
       </c>
-      <c r="D107" t="s">
-        <v>239</v>
-      </c>
       <c r="E107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F107">
         <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -5616,25 +5616,25 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B108">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -5651,16 +5651,16 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B109">
         <v>108</v>
       </c>
       <c r="C109" t="s">
+        <v>240</v>
+      </c>
+      <c r="D109" t="s">
         <v>241</v>
-      </c>
-      <c r="D109" t="s">
-        <v>242</v>
       </c>
       <c r="E109" t="s">
         <v>16</v>
@@ -5669,7 +5669,7 @@
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -5689,25 +5689,25 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B110">
         <v>109</v>
       </c>
       <c r="C110" t="s">
+        <v>242</v>
+      </c>
+      <c r="D110" t="s">
         <v>243</v>
       </c>
-      <c r="D110" t="s">
-        <v>244</v>
-      </c>
       <c r="E110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F110">
         <v>5</v>
       </c>
       <c r="G110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -5730,16 +5730,16 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B111">
         <v>110</v>
       </c>
       <c r="C111" t="s">
+        <v>244</v>
+      </c>
+      <c r="D111" t="s">
         <v>245</v>
-      </c>
-      <c r="D111" t="s">
-        <v>246</v>
       </c>
       <c r="E111" t="s">
         <v>29</v>
@@ -5748,7 +5748,7 @@
         <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -5765,25 +5765,25 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B112">
         <v>111</v>
       </c>
       <c r="C112" t="s">
+        <v>246</v>
+      </c>
+      <c r="D112" t="s">
         <v>247</v>
       </c>
-      <c r="D112" t="s">
-        <v>248</v>
-      </c>
       <c r="E112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -5803,25 +5803,25 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B113">
         <v>112</v>
       </c>
       <c r="C113" t="s">
+        <v>248</v>
+      </c>
+      <c r="D113" t="s">
         <v>249</v>
       </c>
-      <c r="D113" t="s">
-        <v>250</v>
-      </c>
       <c r="E113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F113">
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -5850,16 +5850,16 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B114">
         <v>113</v>
       </c>
       <c r="C114" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" t="s">
         <v>251</v>
-      </c>
-      <c r="D114" t="s">
-        <v>252</v>
       </c>
       <c r="E114" t="s">
         <v>16</v>
@@ -5868,7 +5868,7 @@
         <v>8</v>
       </c>
       <c r="G114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -5888,16 +5888,16 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B115">
         <v>114</v>
       </c>
       <c r="C115" t="s">
+        <v>252</v>
+      </c>
+      <c r="D115" t="s">
         <v>253</v>
-      </c>
-      <c r="D115" t="s">
-        <v>254</v>
       </c>
       <c r="E115" t="s">
         <v>29</v>
@@ -5906,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -5923,16 +5923,16 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B116">
         <v>115</v>
       </c>
       <c r="C116" t="s">
+        <v>254</v>
+      </c>
+      <c r="D116" t="s">
         <v>255</v>
-      </c>
-      <c r="D116" t="s">
-        <v>256</v>
       </c>
       <c r="E116" t="s">
         <v>16</v>
@@ -5941,7 +5941,7 @@
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -5964,16 +5964,16 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B117">
         <v>116</v>
       </c>
       <c r="C117" t="s">
+        <v>256</v>
+      </c>
+      <c r="D117" t="s">
         <v>257</v>
-      </c>
-      <c r="D117" t="s">
-        <v>258</v>
       </c>
       <c r="E117" t="s">
         <v>16</v>
@@ -5982,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="G117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -6002,25 +6002,25 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B118">
         <v>117</v>
       </c>
       <c r="C118" t="s">
+        <v>258</v>
+      </c>
+      <c r="D118" t="s">
         <v>259</v>
       </c>
-      <c r="D118" t="s">
-        <v>260</v>
-      </c>
       <c r="E118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F118">
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -6043,16 +6043,16 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B119">
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E119" t="s">
         <v>16</v>
@@ -6061,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -6084,25 +6084,25 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B120">
         <v>119</v>
       </c>
       <c r="C120" t="s">
+        <v>261</v>
+      </c>
+      <c r="D120" t="s">
         <v>262</v>
       </c>
-      <c r="D120" t="s">
-        <v>263</v>
-      </c>
       <c r="E120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F120">
         <v>6</v>
       </c>
       <c r="G120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -6134,25 +6134,25 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B121">
         <v>120</v>
       </c>
       <c r="C121" t="s">
+        <v>263</v>
+      </c>
+      <c r="D121" t="s">
         <v>264</v>
       </c>
-      <c r="D121" t="s">
-        <v>265</v>
-      </c>
       <c r="E121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F121">
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -6175,16 +6175,16 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B122">
         <v>121</v>
       </c>
       <c r="C122" t="s">
+        <v>265</v>
+      </c>
+      <c r="D122" t="s">
         <v>266</v>
-      </c>
-      <c r="D122" t="s">
-        <v>267</v>
       </c>
       <c r="E122" t="s">
         <v>16</v>
@@ -6193,7 +6193,7 @@
         <v>5</v>
       </c>
       <c r="G122" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -6213,25 +6213,25 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
       <c r="C123" t="s">
+        <v>267</v>
+      </c>
+      <c r="D123" t="s">
         <v>268</v>
       </c>
-      <c r="D123" t="s">
-        <v>269</v>
-      </c>
       <c r="E123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F123">
         <v>3</v>
       </c>
       <c r="G123" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -6251,16 +6251,16 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B124">
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D124" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E124" t="s">
         <v>29</v>
@@ -6269,7 +6269,7 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -6292,25 +6292,25 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B125">
         <v>124</v>
       </c>
       <c r="C125" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125" t="s">
         <v>271</v>
       </c>
-      <c r="D125" t="s">
-        <v>272</v>
-      </c>
       <c r="E125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F125">
         <v>6</v>
       </c>
       <c r="G125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6342,16 +6342,16 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
       <c r="C126" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126" t="s">
         <v>273</v>
-      </c>
-      <c r="D126" t="s">
-        <v>274</v>
       </c>
       <c r="E126" t="s">
         <v>29</v>
@@ -6360,7 +6360,7 @@
         <v>6</v>
       </c>
       <c r="G126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -6377,16 +6377,16 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B127">
         <v>126</v>
       </c>
       <c r="C127" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127" t="s">
         <v>275</v>
-      </c>
-      <c r="D127" t="s">
-        <v>276</v>
       </c>
       <c r="E127" t="s">
         <v>29</v>
@@ -6395,7 +6395,7 @@
         <v>5</v>
       </c>
       <c r="G127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -6415,16 +6415,16 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B128">
         <v>127</v>
       </c>
       <c r="C128" t="s">
+        <v>276</v>
+      </c>
+      <c r="D128" t="s">
         <v>277</v>
-      </c>
-      <c r="D128" t="s">
-        <v>278</v>
       </c>
       <c r="E128" t="s">
         <v>29</v>
@@ -6433,7 +6433,7 @@
         <v>5</v>
       </c>
       <c r="G128" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -6450,16 +6450,16 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B129">
         <v>128</v>
       </c>
       <c r="C129" t="s">
+        <v>278</v>
+      </c>
+      <c r="D129" t="s">
         <v>279</v>
-      </c>
-      <c r="D129" t="s">
-        <v>280</v>
       </c>
       <c r="E129" t="s">
         <v>29</v>
@@ -6468,7 +6468,7 @@
         <v>3</v>
       </c>
       <c r="G129" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -6488,25 +6488,25 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B130">
         <v>129</v>
       </c>
       <c r="C130" t="s">
+        <v>280</v>
+      </c>
+      <c r="D130" t="s">
         <v>281</v>
       </c>
-      <c r="D130" t="s">
-        <v>282</v>
-      </c>
       <c r="E130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F130">
         <v>6</v>
       </c>
       <c r="G130" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -6532,25 +6532,25 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B131">
         <v>130</v>
       </c>
       <c r="C131" t="s">
+        <v>282</v>
+      </c>
+      <c r="D131" t="s">
         <v>283</v>
       </c>
-      <c r="D131" t="s">
-        <v>284</v>
-      </c>
       <c r="E131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F131">
         <v>2</v>
       </c>
       <c r="G131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -6567,25 +6567,25 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B132">
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F132">
         <v>7</v>
       </c>
       <c r="G132" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -6617,25 +6617,25 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B133">
         <v>132</v>
       </c>
       <c r="C133" t="s">
+        <v>286</v>
+      </c>
+      <c r="D133" t="s">
         <v>287</v>
       </c>
-      <c r="D133" t="s">
-        <v>288</v>
-      </c>
       <c r="E133" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F133">
         <v>6</v>
       </c>
       <c r="G133" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -6667,16 +6667,16 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B134">
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D134" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E134" t="s">
         <v>29</v>
@@ -6685,7 +6685,7 @@
         <v>5</v>
       </c>
       <c r="G134" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -6708,25 +6708,25 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B135">
         <v>134</v>
       </c>
       <c r="C135" t="s">
+        <v>289</v>
+      </c>
+      <c r="D135" t="s">
         <v>290</v>
       </c>
-      <c r="D135" t="s">
-        <v>291</v>
-      </c>
       <c r="E135" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F135">
         <v>6</v>
       </c>
       <c r="G135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -6758,25 +6758,25 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B136">
         <v>135</v>
       </c>
       <c r="C136" t="s">
+        <v>291</v>
+      </c>
+      <c r="D136" t="s">
         <v>292</v>
       </c>
-      <c r="D136" t="s">
-        <v>293</v>
-      </c>
       <c r="E136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F136">
         <v>2</v>
       </c>
       <c r="G136" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -6799,16 +6799,16 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B137">
         <v>136</v>
       </c>
       <c r="C137" t="s">
+        <v>293</v>
+      </c>
+      <c r="D137" t="s">
         <v>294</v>
-      </c>
-      <c r="D137" t="s">
-        <v>295</v>
       </c>
       <c r="E137" t="s">
         <v>29</v>
@@ -6817,7 +6817,7 @@
         <v>3</v>
       </c>
       <c r="G137" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -6837,16 +6837,16 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B138">
         <v>137</v>
       </c>
       <c r="C138" t="s">
+        <v>295</v>
+      </c>
+      <c r="D138" t="s">
         <v>296</v>
-      </c>
-      <c r="D138" t="s">
-        <v>297</v>
       </c>
       <c r="E138" t="s">
         <v>29</v>
@@ -6855,7 +6855,7 @@
         <v>4</v>
       </c>
       <c r="G138" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -6875,25 +6875,25 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B139">
         <v>138</v>
       </c>
       <c r="C139" t="s">
+        <v>297</v>
+      </c>
+      <c r="D139" t="s">
         <v>298</v>
       </c>
-      <c r="D139" t="s">
-        <v>299</v>
-      </c>
       <c r="E139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -6910,25 +6910,25 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B140">
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D140" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E140" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F140">
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H140">
         <v>4</v>
@@ -6951,16 +6951,16 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B141">
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D141" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E141" t="s">
         <v>16</v>
@@ -6969,7 +6969,7 @@
         <v>5</v>
       </c>
       <c r="G141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -6989,25 +6989,25 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B142">
         <v>141</v>
       </c>
       <c r="C142" t="s">
+        <v>301</v>
+      </c>
+      <c r="D142" t="s">
         <v>302</v>
       </c>
-      <c r="D142" t="s">
-        <v>303</v>
-      </c>
       <c r="E142" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F142">
         <v>3</v>
       </c>
       <c r="G142" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -7030,25 +7030,25 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B143">
         <v>142</v>
       </c>
       <c r="C143" t="s">
+        <v>303</v>
+      </c>
+      <c r="D143" t="s">
         <v>304</v>
       </c>
-      <c r="D143" t="s">
-        <v>305</v>
-      </c>
       <c r="E143" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F143">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -7071,16 +7071,16 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B144">
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E144" t="s">
         <v>29</v>
@@ -7089,7 +7089,7 @@
         <v>4</v>
       </c>
       <c r="G144" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -7109,25 +7109,25 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B145">
         <v>144</v>
       </c>
       <c r="C145" t="s">
+        <v>306</v>
+      </c>
+      <c r="D145" t="s">
         <v>307</v>
       </c>
-      <c r="D145" t="s">
-        <v>308</v>
-      </c>
       <c r="E145" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F145">
         <v>9</v>
       </c>
       <c r="G145" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -7159,25 +7159,25 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B146">
         <v>145</v>
       </c>
       <c r="C146" t="s">
+        <v>308</v>
+      </c>
+      <c r="D146" t="s">
         <v>309</v>
       </c>
-      <c r="D146" t="s">
-        <v>310</v>
-      </c>
       <c r="E146" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F146">
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H146">
         <v>3</v>
@@ -7194,16 +7194,16 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B147">
         <v>146</v>
       </c>
       <c r="C147" t="s">
+        <v>310</v>
+      </c>
+      <c r="D147" t="s">
         <v>311</v>
-      </c>
-      <c r="D147" t="s">
-        <v>312</v>
       </c>
       <c r="E147" t="s">
         <v>16</v>
@@ -7212,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -7229,16 +7229,16 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B148">
         <v>147</v>
       </c>
       <c r="C148" t="s">
+        <v>312</v>
+      </c>
+      <c r="D148" t="s">
         <v>313</v>
-      </c>
-      <c r="D148" t="s">
-        <v>314</v>
       </c>
       <c r="E148" t="s">
         <v>16</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -7267,16 +7267,16 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B149">
         <v>148</v>
       </c>
       <c r="C149" t="s">
+        <v>314</v>
+      </c>
+      <c r="D149" t="s">
         <v>315</v>
-      </c>
-      <c r="D149" t="s">
-        <v>316</v>
       </c>
       <c r="E149" t="s">
         <v>29</v>
@@ -7285,7 +7285,7 @@
         <v>4</v>
       </c>
       <c r="G149" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -7305,25 +7305,25 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B150">
         <v>149</v>
       </c>
       <c r="C150" t="s">
+        <v>316</v>
+      </c>
+      <c r="D150" t="s">
         <v>317</v>
       </c>
-      <c r="D150" t="s">
-        <v>318</v>
-      </c>
       <c r="E150" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F150">
         <v>6</v>
       </c>
       <c r="G150" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -7352,25 +7352,25 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B151">
         <v>150</v>
       </c>
       <c r="C151" t="s">
+        <v>318</v>
+      </c>
+      <c r="D151" t="s">
         <v>319</v>
       </c>
-      <c r="D151" t="s">
-        <v>320</v>
-      </c>
       <c r="E151" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F151">
         <v>4</v>
       </c>
       <c r="G151" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -7399,16 +7399,16 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B152">
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D152" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E152" t="s">
         <v>29</v>
@@ -7417,7 +7417,7 @@
         <v>3</v>
       </c>
       <c r="G152" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -7437,16 +7437,16 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B153">
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D153" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E153" t="s">
         <v>29</v>
@@ -7455,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="G153" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -7472,25 +7472,25 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B154">
         <v>153</v>
       </c>
       <c r="C154" t="s">
+        <v>322</v>
+      </c>
+      <c r="D154" t="s">
         <v>323</v>
       </c>
-      <c r="D154" t="s">
-        <v>324</v>
-      </c>
       <c r="E154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F154">
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H154">
         <v>4</v>
@@ -7513,25 +7513,25 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B155">
         <v>154</v>
       </c>
       <c r="C155" t="s">
+        <v>324</v>
+      </c>
+      <c r="D155" t="s">
         <v>325</v>
       </c>
-      <c r="D155" t="s">
-        <v>326</v>
-      </c>
       <c r="E155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F155">
         <v>3</v>
       </c>
       <c r="G155" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -7554,16 +7554,16 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B156">
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E156" t="s">
         <v>29</v>
@@ -7572,7 +7572,7 @@
         <v>4</v>
       </c>
       <c r="G156" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -7592,16 +7592,16 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B157">
         <v>156</v>
       </c>
       <c r="C157" t="s">
+        <v>327</v>
+      </c>
+      <c r="D157" t="s">
         <v>328</v>
-      </c>
-      <c r="D157" t="s">
-        <v>329</v>
       </c>
       <c r="E157" t="s">
         <v>16</v>
@@ -7610,7 +7610,7 @@
         <v>4</v>
       </c>
       <c r="G157" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -7627,16 +7627,16 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B158">
         <v>157</v>
       </c>
       <c r="C158" t="s">
+        <v>329</v>
+      </c>
+      <c r="D158" t="s">
         <v>330</v>
-      </c>
-      <c r="D158" t="s">
-        <v>331</v>
       </c>
       <c r="E158" t="s">
         <v>16</v>
@@ -7645,7 +7645,7 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -7665,16 +7665,16 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B159">
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D159" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E159" t="s">
         <v>29</v>
@@ -7683,7 +7683,7 @@
         <v>3</v>
       </c>
       <c r="G159" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -7703,16 +7703,16 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B160">
         <v>159</v>
       </c>
       <c r="C160" t="s">
+        <v>332</v>
+      </c>
+      <c r="D160" t="s">
         <v>333</v>
-      </c>
-      <c r="D160" t="s">
-        <v>334</v>
       </c>
       <c r="E160" t="s">
         <v>29</v>
@@ -7721,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H160">
         <v>3</v>
@@ -7741,25 +7741,25 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B161">
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D161" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F161">
         <v>3</v>
       </c>
       <c r="G161" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -7776,25 +7776,25 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B162">
         <v>161</v>
       </c>
       <c r="C162" t="s">
+        <v>335</v>
+      </c>
+      <c r="D162" t="s">
         <v>336</v>
       </c>
-      <c r="D162" t="s">
-        <v>337</v>
-      </c>
       <c r="E162" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F162">
         <v>4</v>
       </c>
       <c r="G162" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -7814,16 +7814,16 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B163">
         <v>162</v>
       </c>
       <c r="C163" t="s">
+        <v>337</v>
+      </c>
+      <c r="D163" t="s">
         <v>338</v>
-      </c>
-      <c r="D163" t="s">
-        <v>339</v>
       </c>
       <c r="E163" t="s">
         <v>16</v>
@@ -7832,7 +7832,7 @@
         <v>5</v>
       </c>
       <c r="G163" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -7852,16 +7852,16 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B164">
         <v>163</v>
       </c>
       <c r="C164" t="s">
+        <v>339</v>
+      </c>
+      <c r="D164" t="s">
         <v>340</v>
-      </c>
-      <c r="D164" t="s">
-        <v>341</v>
       </c>
       <c r="E164" t="s">
         <v>29</v>
@@ -7870,7 +7870,7 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -7890,25 +7890,25 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B165">
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E165" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F165">
         <v>4</v>
       </c>
       <c r="G165" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H165">
         <v>4</v>
@@ -7928,16 +7928,16 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B166">
         <v>165</v>
       </c>
       <c r="C166" t="s">
+        <v>342</v>
+      </c>
+      <c r="D166" t="s">
         <v>343</v>
-      </c>
-      <c r="D166" t="s">
-        <v>344</v>
       </c>
       <c r="E166" t="s">
         <v>16</v>
@@ -7946,7 +7946,7 @@
         <v>5</v>
       </c>
       <c r="G166" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -7966,16 +7966,16 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B167">
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D167" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E167" t="s">
         <v>29</v>
@@ -7984,7 +7984,7 @@
         <v>3</v>
       </c>
       <c r="G167" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -8001,25 +8001,25 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B168">
         <v>167</v>
       </c>
       <c r="C168" t="s">
+        <v>345</v>
+      </c>
+      <c r="D168" t="s">
         <v>346</v>
       </c>
-      <c r="D168" t="s">
-        <v>347</v>
-      </c>
       <c r="E168" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F168">
         <v>3</v>
       </c>
       <c r="G168" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -8036,16 +8036,16 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B169">
         <v>168</v>
       </c>
       <c r="C169" t="s">
+        <v>347</v>
+      </c>
+      <c r="D169" t="s">
         <v>348</v>
-      </c>
-      <c r="D169" t="s">
-        <v>349</v>
       </c>
       <c r="E169" t="s">
         <v>29</v>
@@ -8054,7 +8054,7 @@
         <v>3</v>
       </c>
       <c r="G169" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -8071,16 +8071,16 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B170">
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D170" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E170" t="s">
         <v>29</v>
@@ -8089,7 +8089,7 @@
         <v>3</v>
       </c>
       <c r="G170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -8106,16 +8106,16 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B171">
         <v>170</v>
       </c>
       <c r="C171" t="s">
+        <v>350</v>
+      </c>
+      <c r="D171" t="s">
         <v>351</v>
-      </c>
-      <c r="D171" t="s">
-        <v>352</v>
       </c>
       <c r="E171" t="s">
         <v>29</v>
@@ -8124,7 +8124,7 @@
         <v>6</v>
       </c>
       <c r="G171" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -8141,16 +8141,16 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B172">
         <v>171</v>
       </c>
       <c r="C172" t="s">
+        <v>352</v>
+      </c>
+      <c r="D172" t="s">
         <v>353</v>
-      </c>
-      <c r="D172" t="s">
-        <v>354</v>
       </c>
       <c r="E172" t="s">
         <v>29</v>
@@ -8159,7 +8159,7 @@
         <v>6</v>
       </c>
       <c r="G172" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -8179,16 +8179,16 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B173">
         <v>172</v>
       </c>
       <c r="C173" t="s">
+        <v>354</v>
+      </c>
+      <c r="D173" t="s">
         <v>355</v>
-      </c>
-      <c r="D173" t="s">
-        <v>356</v>
       </c>
       <c r="E173" t="s">
         <v>16</v>
@@ -8197,7 +8197,7 @@
         <v>5</v>
       </c>
       <c r="G173" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -8226,16 +8226,16 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B174">
         <v>173</v>
       </c>
       <c r="C174" t="s">
+        <v>356</v>
+      </c>
+      <c r="D174" t="s">
         <v>357</v>
-      </c>
-      <c r="D174" t="s">
-        <v>358</v>
       </c>
       <c r="E174" t="s">
         <v>29</v>
@@ -8244,7 +8244,7 @@
         <v>4</v>
       </c>
       <c r="G174" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -8273,16 +8273,16 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B175">
         <v>174</v>
       </c>
       <c r="C175" t="s">
+        <v>358</v>
+      </c>
+      <c r="D175" t="s">
         <v>359</v>
-      </c>
-      <c r="D175" t="s">
-        <v>360</v>
       </c>
       <c r="E175" t="s">
         <v>16</v>
@@ -8291,7 +8291,7 @@
         <v>4</v>
       </c>
       <c r="G175" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -8308,25 +8308,25 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B176">
         <v>175</v>
       </c>
       <c r="C176" t="s">
+        <v>360</v>
+      </c>
+      <c r="D176" t="s">
         <v>361</v>
       </c>
-      <c r="D176" t="s">
-        <v>362</v>
-      </c>
       <c r="E176" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F176">
         <v>4</v>
       </c>
       <c r="G176" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -8343,16 +8343,16 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B177">
         <v>176</v>
       </c>
       <c r="C177" t="s">
+        <v>362</v>
+      </c>
+      <c r="D177" t="s">
         <v>363</v>
-      </c>
-      <c r="D177" t="s">
-        <v>364</v>
       </c>
       <c r="E177" t="s">
         <v>29</v>
@@ -8361,7 +8361,7 @@
         <v>3</v>
       </c>
       <c r="G177" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -8378,16 +8378,16 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B178">
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D178" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E178" t="s">
         <v>29</v>
@@ -8396,7 +8396,7 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -8413,16 +8413,16 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B179">
         <v>178</v>
       </c>
       <c r="C179" t="s">
+        <v>365</v>
+      </c>
+      <c r="D179" t="s">
         <v>366</v>
-      </c>
-      <c r="D179" t="s">
-        <v>367</v>
       </c>
       <c r="E179" t="s">
         <v>16</v>
@@ -8431,7 +8431,7 @@
         <v>4</v>
       </c>
       <c r="G179" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -8451,25 +8451,25 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B180">
         <v>179</v>
       </c>
       <c r="C180" t="s">
+        <v>367</v>
+      </c>
+      <c r="D180" t="s">
         <v>368</v>
       </c>
-      <c r="D180" t="s">
-        <v>369</v>
-      </c>
       <c r="E180" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F180">
         <v>2</v>
       </c>
       <c r="G180" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H180">
         <v>4</v>
@@ -8498,25 +8498,25 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B181">
         <v>180</v>
       </c>
       <c r="C181" t="s">
+        <v>369</v>
+      </c>
+      <c r="D181" t="s">
         <v>370</v>
       </c>
-      <c r="D181" t="s">
-        <v>371</v>
-      </c>
       <c r="E181" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F181">
         <v>4</v>
       </c>
       <c r="G181" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -8536,16 +8536,16 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B182">
         <v>181</v>
       </c>
       <c r="C182" t="s">
+        <v>371</v>
+      </c>
+      <c r="D182" t="s">
         <v>372</v>
-      </c>
-      <c r="D182" t="s">
-        <v>373</v>
       </c>
       <c r="E182" t="s">
         <v>16</v>
@@ -8554,7 +8554,7 @@
         <v>3</v>
       </c>
       <c r="G182" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -8571,16 +8571,16 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B183">
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D183" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E183" t="s">
         <v>29</v>
@@ -8589,7 +8589,7 @@
         <v>4</v>
       </c>
       <c r="G183" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -8609,25 +8609,25 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B184">
         <v>183</v>
       </c>
       <c r="C184" t="s">
+        <v>374</v>
+      </c>
+      <c r="D184" t="s">
         <v>375</v>
       </c>
-      <c r="D184" t="s">
-        <v>376</v>
-      </c>
       <c r="E184" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F184">
         <v>5</v>
       </c>
       <c r="G184" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H184">
         <v>2</v>

--- a/scripts/cards.xlsx
+++ b/scripts/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\navarog\projects\wyrmsearch\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7370EB-C193-4207-910A-8071381E95A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE7360B-B5E4-40E8-8F51-07F4E637CFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -285,9 +285,6 @@
     <t>Silent Cobrette</t>
   </si>
   <si>
-    <t>Tuck [DragonCard] from your hand here. Any time you tuck [DragonCard] here, gain [Crystal]. When the 3rd [DragonCard] is tucked, also gain [DragonCard][DragonCard].</t>
-  </si>
-  <si>
     <t>Cache [Milk] from your supply here. Any time you cache [Milk] here, gain [Meat]. When the 3rd [Milk] is cached, also excavate 1 space for free with [CaveCard] from your hand.</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
     <t>Scaly Rock Dragon</t>
   </si>
   <si>
-    <t>Excavate 1 space for free with [DragonCard] from the display.</t>
-  </si>
-  <si>
     <t>Perceptive Anteldragon</t>
   </si>
   <si>
@@ -519,9 +513,6 @@
     <t>Hostile Northern Fire Dragon</t>
   </si>
   <si>
-    <t>Reveal [DragonCard] from the deck. If it is large, tuck it here. Otherwise, discard it and gain [Meat].</t>
-  </si>
-  <si>
     <t>Prescient Gryphdragon</t>
   </si>
   <si>
@@ -705,9 +696,6 @@
     <t>Horned Venomous Wyrm</t>
   </si>
   <si>
-    <t>Reveal [DragonCard] from the deck. If it is small, tuck it here. Otherwise discard it and gain [Milk].</t>
-  </si>
-  <si>
     <t>Magnificent Amphiptere</t>
   </si>
   <si>
@@ -1162,6 +1150,18 @@
   </si>
   <si>
     <t>Tuck [DragonCard] from your hand here. Each [DragonCard] tucked under this dragon is worth [VP-1] at game end. When the 3rd [DragonCard] is tucked, also gain [DragonGuild][DragonGuild].</t>
+  </si>
+  <si>
+    <t>Tuck [DragonCard] from your hand here. Any time you tuck [DragonCard] here, gain [Crystal]. When the 3rd [DragonCard] is tucked, also gain [CaveCard][CaveCard].</t>
+  </si>
+  <si>
+    <t>Excavate 1 space for free with [CaveCard] from the display.</t>
+  </si>
+  <si>
+    <t>Reveal [DragonCard] from the deck. If it is *large*, tuck it here. Otherwise, discard it and gain [Meat].</t>
+  </si>
+  <si>
+    <t>Reveal [DragonCard] from the deck. If it is *small*, tuck it here. Otherwise discard it and gain [Milk].</t>
   </si>
 </sst>
 </file>
@@ -1530,19 +1530,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1598,9 +1598,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1633,9 +1633,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1668,9 +1668,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1706,9 +1706,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1741,9 +1741,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1776,9 +1776,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1811,9 +1811,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1846,9 +1846,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1857,7 +1857,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -1881,9 +1881,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1919,9 +1919,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1957,9 +1957,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1992,9 +1992,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2027,9 +2027,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2062,9 +2062,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2097,9 +2097,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2132,9 +2132,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2170,9 +2170,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2208,9 +2208,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2219,7 +2219,7 @@
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -2243,9 +2243,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2281,9 +2281,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2316,9 +2316,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -2351,9 +2351,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2386,9 +2386,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2421,9 +2421,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -2456,9 +2456,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2491,9 +2491,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2526,9 +2526,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -2561,9 +2561,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -2596,9 +2596,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -2631,9 +2631,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -2666,9 +2666,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -2677,7 +2677,7 @@
         <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>375</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
@@ -2701,18 +2701,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
         <v>29</v>
@@ -2736,18 +2736,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E34" t="s">
         <v>29</v>
@@ -2771,18 +2771,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E35" t="s">
         <v>29</v>
@@ -2806,18 +2806,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E36" t="s">
         <v>29</v>
@@ -2841,18 +2841,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
         <v>29</v>
@@ -2861,7 +2861,7 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -2876,18 +2876,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -2896,7 +2896,7 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -2911,18 +2911,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
@@ -2931,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2952,27 +2952,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" t="s">
         <v>103</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>104</v>
-      </c>
-      <c r="E40" t="s">
-        <v>105</v>
       </c>
       <c r="F40">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -2999,18 +2999,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
         <v>106</v>
-      </c>
-      <c r="D41" t="s">
-        <v>107</v>
       </c>
       <c r="E41" t="s">
         <v>29</v>
@@ -3019,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -3037,27 +3037,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
         <v>109</v>
       </c>
-      <c r="D42" t="s">
-        <v>110</v>
-      </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -3078,27 +3078,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
         <v>111</v>
       </c>
-      <c r="D43" t="s">
-        <v>112</v>
-      </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -3116,18 +3116,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
         <v>113</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>29</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -3151,27 +3151,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" t="s">
         <v>115</v>
       </c>
-      <c r="D45" t="s">
-        <v>116</v>
-      </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -3189,18 +3189,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
         <v>117</v>
-      </c>
-      <c r="D46" t="s">
-        <v>118</v>
       </c>
       <c r="E46" t="s">
         <v>29</v>
@@ -3209,7 +3209,7 @@
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H46">
         <v>5</v>
@@ -3224,27 +3224,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
         <v>119</v>
       </c>
-      <c r="D47" t="s">
-        <v>120</v>
-      </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -3265,18 +3265,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" t="s">
         <v>121</v>
-      </c>
-      <c r="D48" t="s">
-        <v>122</v>
       </c>
       <c r="E48" t="s">
         <v>29</v>
@@ -3285,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -3300,18 +3300,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
         <v>123</v>
-      </c>
-      <c r="D49" t="s">
-        <v>124</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
@@ -3320,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -3335,27 +3335,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -3385,18 +3385,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
         <v>126</v>
-      </c>
-      <c r="D51" t="s">
-        <v>127</v>
       </c>
       <c r="E51" t="s">
         <v>29</v>
@@ -3405,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -3420,27 +3420,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" t="s">
         <v>128</v>
       </c>
-      <c r="D52" t="s">
-        <v>129</v>
-      </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -3461,27 +3461,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" t="s">
         <v>130</v>
       </c>
-      <c r="D53" t="s">
-        <v>131</v>
-      </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -3499,18 +3499,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" t="s">
         <v>132</v>
-      </c>
-      <c r="D54" t="s">
-        <v>133</v>
       </c>
       <c r="E54" t="s">
         <v>29</v>
@@ -3519,7 +3519,7 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -3537,27 +3537,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" t="s">
         <v>134</v>
       </c>
-      <c r="D55" t="s">
-        <v>135</v>
-      </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -3584,18 +3584,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" t="s">
         <v>136</v>
-      </c>
-      <c r="D56" t="s">
-        <v>137</v>
       </c>
       <c r="E56" t="s">
         <v>29</v>
@@ -3604,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H56">
         <v>4</v>
@@ -3625,18 +3625,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" t="s">
         <v>138</v>
-      </c>
-      <c r="D57" t="s">
-        <v>139</v>
       </c>
       <c r="E57" t="s">
         <v>29</v>
@@ -3645,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -3666,18 +3666,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" t="s">
         <v>140</v>
-      </c>
-      <c r="D58" t="s">
-        <v>141</v>
       </c>
       <c r="E58" t="s">
         <v>16</v>
@@ -3686,7 +3686,7 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -3704,18 +3704,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" t="s">
         <v>142</v>
-      </c>
-      <c r="D59" t="s">
-        <v>143</v>
       </c>
       <c r="E59" t="s">
         <v>29</v>
@@ -3724,7 +3724,7 @@
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -3742,27 +3742,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" t="s">
         <v>145</v>
       </c>
-      <c r="D60" t="s">
-        <v>146</v>
-      </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F60">
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -3783,18 +3783,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" t="s">
         <v>147</v>
-      </c>
-      <c r="D61" t="s">
-        <v>148</v>
       </c>
       <c r="E61" t="s">
         <v>16</v>
@@ -3803,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -3821,18 +3821,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" t="s">
         <v>149</v>
-      </c>
-      <c r="D62" t="s">
-        <v>150</v>
       </c>
       <c r="E62" t="s">
         <v>29</v>
@@ -3841,7 +3841,7 @@
         <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -3865,18 +3865,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E63" t="s">
         <v>16</v>
@@ -3885,7 +3885,7 @@
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -3900,27 +3900,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
         <v>152</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>153</v>
-      </c>
-      <c r="E64" t="s">
-        <v>154</v>
       </c>
       <c r="F64">
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H64">
         <v>4</v>
@@ -3944,18 +3944,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>376</v>
       </c>
       <c r="E65" t="s">
         <v>16</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -3979,18 +3979,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E66" t="s">
         <v>16</v>
@@ -3999,7 +3999,7 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -4017,18 +4017,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
         <v>29</v>
@@ -4037,7 +4037,7 @@
         <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -4055,18 +4055,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E68" t="s">
         <v>29</v>
@@ -4075,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -4096,18 +4096,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>164</v>
+        <v>377</v>
       </c>
       <c r="E69" t="s">
         <v>29</v>
@@ -4116,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -4131,27 +4131,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -4166,27 +4166,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F71">
         <v>5</v>
       </c>
       <c r="G71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -4207,27 +4207,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F72">
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -4248,27 +4248,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D73" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F73">
         <v>5</v>
       </c>
       <c r="G73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -4286,18 +4286,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E74" t="s">
         <v>29</v>
@@ -4306,7 +4306,7 @@
         <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -4324,27 +4324,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F75">
         <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -4362,18 +4362,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E76" t="s">
         <v>29</v>
@@ -4382,7 +4382,7 @@
         <v>5</v>
       </c>
       <c r="G76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -4400,18 +4400,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E77" t="s">
         <v>16</v>
@@ -4420,7 +4420,7 @@
         <v>5</v>
       </c>
       <c r="G77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -4431,25 +4431,25 @@
       <c r="J77">
         <v>1</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>2</v>
       </c>
       <c r="N77" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E78" t="s">
         <v>29</v>
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -4469,7 +4469,7 @@
       <c r="J78">
         <v>1</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>1</v>
       </c>
       <c r="N78" t="s">
@@ -4479,18 +4479,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -4499,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -4514,27 +4514,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -4552,18 +4552,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B81">
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E81" t="s">
         <v>29</v>
@@ -4572,7 +4572,7 @@
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -4593,27 +4593,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D82" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F82">
         <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -4631,18 +4631,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B83">
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D83" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E83" t="s">
         <v>29</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -4666,18 +4666,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B84">
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E84" t="s">
         <v>16</v>
@@ -4686,7 +4686,7 @@
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -4704,18 +4704,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D85" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E85" t="s">
         <v>29</v>
@@ -4724,7 +4724,7 @@
         <v>6</v>
       </c>
       <c r="G85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -4742,18 +4742,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B86">
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D86" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E86" t="s">
         <v>16</v>
@@ -4762,7 +4762,7 @@
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -4780,27 +4780,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B87">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D87" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F87">
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -4818,27 +4818,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B88">
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F88">
         <v>5</v>
       </c>
       <c r="G88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -4849,7 +4849,7 @@
       <c r="J88">
         <v>1</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>1</v>
       </c>
       <c r="N88" t="s">
@@ -4859,18 +4859,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B89">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E89" t="s">
         <v>16</v>
@@ -4879,7 +4879,7 @@
         <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -4894,18 +4894,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B90">
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D90" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -4914,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -4935,18 +4935,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D91" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E91" t="s">
         <v>29</v>
@@ -4955,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -4976,27 +4976,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B92">
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D92" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F92">
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -5023,18 +5023,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B93">
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E93" t="s">
         <v>29</v>
@@ -5043,7 +5043,7 @@
         <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -5058,27 +5058,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B94">
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D94" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F94">
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -5093,18 +5093,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B95">
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
         <v>29</v>
@@ -5113,7 +5113,7 @@
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -5134,27 +5134,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B96">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D96" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F96">
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -5175,18 +5175,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E97" t="s">
         <v>29</v>
@@ -5195,7 +5195,7 @@
         <v>2</v>
       </c>
       <c r="G97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -5216,27 +5216,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B98">
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D98" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F98">
         <v>5</v>
       </c>
       <c r="G98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -5260,27 +5260,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B99">
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D99" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F99">
         <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -5295,18 +5295,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B100">
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D100" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E100" t="s">
         <v>16</v>
@@ -5315,7 +5315,7 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -5336,18 +5336,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D101" t="s">
-        <v>226</v>
+        <v>378</v>
       </c>
       <c r="E101" t="s">
         <v>29</v>
@@ -5356,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="G101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -5374,27 +5374,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B102">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D102" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F102">
         <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -5424,27 +5424,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B103">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D103" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F103">
         <v>4</v>
       </c>
       <c r="G103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -5465,27 +5465,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B104">
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F104">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -5500,27 +5500,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B105">
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D105" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -5538,18 +5538,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B106">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D106" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E106" t="s">
         <v>16</v>
@@ -5558,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -5573,27 +5573,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B107">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D107" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F107">
         <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -5614,27 +5614,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B108">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D108" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -5649,18 +5649,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B109">
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D109" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E109" t="s">
         <v>16</v>
@@ -5669,7 +5669,7 @@
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -5687,27 +5687,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B110">
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D110" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F110">
         <v>5</v>
       </c>
       <c r="G110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -5728,18 +5728,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B111">
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D111" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E111" t="s">
         <v>29</v>
@@ -5748,7 +5748,7 @@
         <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -5763,27 +5763,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B112">
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D112" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -5801,27 +5801,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B113">
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D113" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F113">
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -5848,18 +5848,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B114">
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D114" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E114" t="s">
         <v>16</v>
@@ -5868,7 +5868,7 @@
         <v>8</v>
       </c>
       <c r="G114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -5886,18 +5886,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B115">
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D115" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E115" t="s">
         <v>29</v>
@@ -5906,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -5921,18 +5921,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B116">
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D116" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E116" t="s">
         <v>16</v>
@@ -5941,7 +5941,7 @@
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -5962,18 +5962,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B117">
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D117" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E117" t="s">
         <v>16</v>
@@ -5982,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="G117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -6000,27 +6000,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B118">
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D118" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E118" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F118">
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -6041,18 +6041,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B119">
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E119" t="s">
         <v>16</v>
@@ -6061,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -6082,27 +6082,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B120">
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D120" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F120">
         <v>6</v>
       </c>
       <c r="G120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -6132,27 +6132,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B121">
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D121" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F121">
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -6173,18 +6173,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B122">
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D122" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E122" t="s">
         <v>16</v>
@@ -6193,7 +6193,7 @@
         <v>5</v>
       </c>
       <c r="G122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -6211,27 +6211,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D123" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E123" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F123">
         <v>3</v>
       </c>
       <c r="G123" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -6249,18 +6249,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B124">
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D124" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E124" t="s">
         <v>29</v>
@@ -6269,7 +6269,7 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -6290,27 +6290,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B125">
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D125" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E125" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F125">
         <v>6</v>
       </c>
       <c r="G125" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6340,18 +6340,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D126" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E126" t="s">
         <v>29</v>
@@ -6360,7 +6360,7 @@
         <v>6</v>
       </c>
       <c r="G126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -6375,18 +6375,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B127">
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D127" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E127" t="s">
         <v>29</v>
@@ -6395,7 +6395,7 @@
         <v>5</v>
       </c>
       <c r="G127" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -6413,18 +6413,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B128">
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D128" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E128" t="s">
         <v>29</v>
@@ -6433,7 +6433,7 @@
         <v>5</v>
       </c>
       <c r="G128" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -6448,18 +6448,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B129">
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D129" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E129" t="s">
         <v>29</v>
@@ -6468,7 +6468,7 @@
         <v>3</v>
       </c>
       <c r="G129" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -6486,27 +6486,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B130">
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D130" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F130">
         <v>6</v>
       </c>
       <c r="G130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -6530,27 +6530,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B131">
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D131" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E131" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F131">
         <v>2</v>
       </c>
       <c r="G131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -6565,27 +6565,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B132">
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D132" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F132">
         <v>7</v>
       </c>
       <c r="G132" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -6615,27 +6615,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B133">
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D133" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F133">
         <v>6</v>
       </c>
       <c r="G133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -6665,18 +6665,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B134">
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D134" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E134" t="s">
         <v>29</v>
@@ -6685,7 +6685,7 @@
         <v>5</v>
       </c>
       <c r="G134" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -6706,27 +6706,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B135">
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D135" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E135" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F135">
         <v>6</v>
       </c>
       <c r="G135" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -6756,27 +6756,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B136">
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D136" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F136">
         <v>2</v>
       </c>
       <c r="G136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -6797,18 +6797,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B137">
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D137" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E137" t="s">
         <v>29</v>
@@ -6817,7 +6817,7 @@
         <v>3</v>
       </c>
       <c r="G137" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -6835,18 +6835,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B138">
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D138" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E138" t="s">
         <v>29</v>
@@ -6855,7 +6855,7 @@
         <v>4</v>
       </c>
       <c r="G138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -6873,27 +6873,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B139">
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D139" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -6908,27 +6908,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B140">
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D140" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E140" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F140">
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H140">
         <v>4</v>
@@ -6949,18 +6949,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B141">
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D141" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E141" t="s">
         <v>16</v>
@@ -6969,7 +6969,7 @@
         <v>5</v>
       </c>
       <c r="G141" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -6987,27 +6987,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B142">
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D142" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E142" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F142">
         <v>3</v>
       </c>
       <c r="G142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -7028,27 +7028,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B143">
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D143" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E143" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F143">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -7069,18 +7069,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B144">
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E144" t="s">
         <v>29</v>
@@ -7089,7 +7089,7 @@
         <v>4</v>
       </c>
       <c r="G144" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -7107,27 +7107,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B145">
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D145" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E145" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F145">
         <v>9</v>
       </c>
       <c r="G145" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -7157,27 +7157,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B146">
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D146" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F146">
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H146">
         <v>3</v>
@@ -7192,18 +7192,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B147">
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D147" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E147" t="s">
         <v>16</v>
@@ -7212,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -7227,18 +7227,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B148">
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D148" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E148" t="s">
         <v>16</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -7265,18 +7265,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B149">
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D149" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E149" t="s">
         <v>29</v>
@@ -7285,7 +7285,7 @@
         <v>4</v>
       </c>
       <c r="G149" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -7303,27 +7303,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B150">
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D150" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E150" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F150">
         <v>6</v>
       </c>
       <c r="G150" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -7350,27 +7350,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B151">
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D151" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E151" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F151">
         <v>4</v>
       </c>
       <c r="G151" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -7397,18 +7397,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B152">
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D152" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E152" t="s">
         <v>29</v>
@@ -7417,7 +7417,7 @@
         <v>3</v>
       </c>
       <c r="G152" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -7435,18 +7435,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B153">
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D153" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E153" t="s">
         <v>29</v>
@@ -7455,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="G153" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -7470,27 +7470,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B154">
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D154" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F154">
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H154">
         <v>4</v>
@@ -7511,27 +7511,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B155">
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D155" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F155">
         <v>3</v>
       </c>
       <c r="G155" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -7552,18 +7552,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B156">
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D156" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E156" t="s">
         <v>29</v>
@@ -7572,7 +7572,7 @@
         <v>4</v>
       </c>
       <c r="G156" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -7590,18 +7590,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B157">
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D157" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E157" t="s">
         <v>16</v>
@@ -7610,7 +7610,7 @@
         <v>4</v>
       </c>
       <c r="G157" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -7625,18 +7625,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B158">
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D158" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E158" t="s">
         <v>16</v>
@@ -7645,7 +7645,7 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -7663,18 +7663,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B159">
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D159" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E159" t="s">
         <v>29</v>
@@ -7683,7 +7683,7 @@
         <v>3</v>
       </c>
       <c r="G159" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -7701,18 +7701,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B160">
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D160" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E160" t="s">
         <v>29</v>
@@ -7721,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H160">
         <v>3</v>
@@ -7739,27 +7739,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B161">
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D161" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E161" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F161">
         <v>3</v>
       </c>
       <c r="G161" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -7774,27 +7774,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B162">
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D162" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E162" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F162">
         <v>4</v>
       </c>
       <c r="G162" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -7812,18 +7812,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B163">
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D163" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E163" t="s">
         <v>16</v>
@@ -7832,7 +7832,7 @@
         <v>5</v>
       </c>
       <c r="G163" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -7850,18 +7850,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B164">
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D164" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E164" t="s">
         <v>29</v>
@@ -7870,7 +7870,7 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -7888,27 +7888,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B165">
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D165" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E165" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F165">
         <v>4</v>
       </c>
       <c r="G165" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H165">
         <v>4</v>
@@ -7926,18 +7926,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B166">
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D166" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E166" t="s">
         <v>16</v>
@@ -7946,7 +7946,7 @@
         <v>5</v>
       </c>
       <c r="G166" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -7964,18 +7964,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B167">
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D167" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E167" t="s">
         <v>29</v>
@@ -7984,7 +7984,7 @@
         <v>3</v>
       </c>
       <c r="G167" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -7999,27 +7999,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B168">
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D168" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E168" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F168">
         <v>3</v>
       </c>
       <c r="G168" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -8034,18 +8034,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B169">
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D169" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E169" t="s">
         <v>29</v>
@@ -8054,7 +8054,7 @@
         <v>3</v>
       </c>
       <c r="G169" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -8069,18 +8069,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B170">
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D170" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E170" t="s">
         <v>29</v>
@@ -8089,7 +8089,7 @@
         <v>3</v>
       </c>
       <c r="G170" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -8104,18 +8104,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B171">
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D171" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E171" t="s">
         <v>29</v>
@@ -8124,7 +8124,7 @@
         <v>6</v>
       </c>
       <c r="G171" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -8139,18 +8139,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B172">
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D172" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E172" t="s">
         <v>29</v>
@@ -8159,7 +8159,7 @@
         <v>6</v>
       </c>
       <c r="G172" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -8177,18 +8177,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B173">
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D173" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E173" t="s">
         <v>16</v>
@@ -8197,7 +8197,7 @@
         <v>5</v>
       </c>
       <c r="G173" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -8224,18 +8224,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B174">
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D174" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E174" t="s">
         <v>29</v>
@@ -8244,7 +8244,7 @@
         <v>4</v>
       </c>
       <c r="G174" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -8271,18 +8271,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B175">
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D175" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E175" t="s">
         <v>16</v>
@@ -8291,7 +8291,7 @@
         <v>4</v>
       </c>
       <c r="G175" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -8306,27 +8306,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B176">
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D176" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E176" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F176">
         <v>4</v>
       </c>
       <c r="G176" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -8341,18 +8341,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B177">
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D177" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E177" t="s">
         <v>29</v>
@@ -8361,7 +8361,7 @@
         <v>3</v>
       </c>
       <c r="G177" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -8376,18 +8376,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B178">
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D178" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E178" t="s">
         <v>29</v>
@@ -8396,7 +8396,7 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -8411,18 +8411,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B179">
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D179" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E179" t="s">
         <v>16</v>
@@ -8431,7 +8431,7 @@
         <v>4</v>
       </c>
       <c r="G179" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -8449,27 +8449,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B180">
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D180" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E180" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F180">
         <v>2</v>
       </c>
       <c r="G180" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H180">
         <v>4</v>
@@ -8496,27 +8496,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B181">
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D181" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E181" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F181">
         <v>4</v>
       </c>
       <c r="G181" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -8534,18 +8534,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B182">
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D182" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E182" t="s">
         <v>16</v>
@@ -8554,7 +8554,7 @@
         <v>3</v>
       </c>
       <c r="G182" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -8569,18 +8569,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B183">
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D183" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E183" t="s">
         <v>29</v>
@@ -8589,7 +8589,7 @@
         <v>4</v>
       </c>
       <c r="G183" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -8607,27 +8607,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B184">
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D184" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E184" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F184">
         <v>5</v>
       </c>
       <c r="G184" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H184">
         <v>2</v>

--- a/scripts/cards.xlsx
+++ b/scripts/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\navarog\projects\wyrmsearch\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE7360B-B5E4-40E8-8F51-07F4E637CFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C740AD39-46BA-4E62-AB9E-1B9D3908BC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="426">
   <si>
     <t>type</t>
   </si>
@@ -1162,6 +1162,147 @@
   </si>
   <si>
     <t>Reveal [DragonCard] from the deck. If it is *small*, tuck it here. Otherwise discard it and gain [Milk].</t>
+  </si>
+  <si>
+    <t>Cave</t>
+  </si>
+  <si>
+    <t>Activate the [WhenPlayed] ability on any dragon on your player mat.</t>
+  </si>
+  <si>
+    <t>Cache [AnyResource][AnyResource] from the general supply onto any dragon(s).</t>
+  </si>
+  <si>
+    <t>Gain [AnyResource]. Lay [Egg].</t>
+  </si>
+  <si>
+    <t>Gain [CaveCard][AnyResource].</t>
+  </si>
+  <si>
+    <t>Gain [CaveCard][DragonGuild].</t>
+  </si>
+  <si>
+    <t>Gain [CaveCard]. Lay [Egg][Egg].</t>
+  </si>
+  <si>
+    <t>Gain [Crystal][DragonCard].</t>
+  </si>
+  <si>
+    <t>Gain [Crystal][Crystal].</t>
+  </si>
+  <si>
+    <t>Gain [Crystal][Milk].</t>
+  </si>
+  <si>
+    <t>Gain [Crystal]. Lay [Egg].</t>
+  </si>
+  <si>
+    <t>Gain [DragonCard][DragonCard].</t>
+  </si>
+  <si>
+    <t>Gain [DragonCard][DragonGuild].</t>
+  </si>
+  <si>
+    <t>Gain [DragonCard]. Lay [Egg].</t>
+  </si>
+  <si>
+    <t>Gain [DragonGuild]. Lay [Egg].</t>
+  </si>
+  <si>
+    <t>Gain [Gold][DragonCard].</t>
+  </si>
+  <si>
+    <t>Gain [Gold][Crystal].</t>
+  </si>
+  <si>
+    <t>Gain [Gold][Gold].</t>
+  </si>
+  <si>
+    <t>Gain [Gold][Milk].</t>
+  </si>
+  <si>
+    <t>Gain [Gold]. Lay [Egg].</t>
+  </si>
+  <si>
+    <t>Gain [Meat][DragonCard].</t>
+  </si>
+  <si>
+    <t>Gain [Meat][Crystal].</t>
+  </si>
+  <si>
+    <t>Gain [Meat][Gold].</t>
+  </si>
+  <si>
+    <t>Gain [Meat][Meat].</t>
+  </si>
+  <si>
+    <t>Gain [Meat][Milk].</t>
+  </si>
+  <si>
+    <t>Gain [Meat]. Lay [Egg].</t>
+  </si>
+  <si>
+    <t>Gain 2 different benefits: [DragonCard]/[DragonGuild]/[CaveCard]/[AnyResource]. Each opponent gains 1 benefit of their choice.</t>
+  </si>
+  <si>
+    <t>Immediately play [DragonCard] with a discount of 1 [Egg] or [AnyResource].</t>
+  </si>
+  <si>
+    <t>Lay [Egg][Egg][Egg].</t>
+  </si>
+  <si>
+    <t>Pay [AnyResource][AnyResource], then draw [CaveCard] from the deck and immediately play it for free.</t>
+  </si>
+  <si>
+    <t>Pay [AnyResource][AnyResource], then gain [CaveCard] from the display and immediately play it for free.</t>
+  </si>
+  <si>
+    <t>Pay [CaveCard][CaveCard], then draw [CaveCard] from the deck and immediately play it for free.</t>
+  </si>
+  <si>
+    <t>Pay [CaveCard][CaveCard], then gain [CaveCard] from the display and immediately play it for free.</t>
+  </si>
+  <si>
+    <t>Pay [DragonCard][DragonCard], then draw [CaveCard] from the deck and immediately play it for free.</t>
+  </si>
+  <si>
+    <t>Pay [DragonCard][DragonCard], then gain [CaveCard] from the display and immediately play it for free.</t>
+  </si>
+  <si>
+    <t>Pay [Egg][Egg], then draw [CaveCard] from the deck and immediately play it for free.</t>
+  </si>
+  <si>
+    <t>Pay [Egg][Egg], then gain [CaveCard] from the display and immediately play it for free.</t>
+  </si>
+  <si>
+    <t>Swap the location of any 2 dragons on your player mat. Ignore normal cave preferences.</t>
+  </si>
+  <si>
+    <t>Tuck [DragonCard][DragonCard] from the deck behind any dragon(s).</t>
+  </si>
+  <si>
+    <t>Up to 3x, pay [AnyResource] to gain [DragonGuild]. Each opponent may do this 1x.</t>
+  </si>
+  <si>
+    <t>Up to 3x, pay [AnyResource] to lay [Egg][Egg]. Each opponent may do this 1x.</t>
+  </si>
+  <si>
+    <t>Up to 3x, pay [CaveCard] to gain [DragonGuild]. Each opponent may do this 1x.</t>
+  </si>
+  <si>
+    <t>Up to 3x, pay [DragonCard] to gain [DragonGuild]. Each opponent may do this 1x.</t>
+  </si>
+  <si>
+    <t>Up to 3x, pay [DragonCard] to lay [Egg][Egg]. Each opponent may do this 1x.</t>
+  </si>
+  <si>
+    <t>Up to 3x, pay [Egg] to gain [AnyResource][AnyResource]. Each opponent may do this 1x.</t>
+  </si>
+  <si>
+    <t>Up to 3x, pay [Egg] to gain [DragonGuild]. Each opponent may do this 1x.</t>
+  </si>
+  <si>
+    <t>Activate the [OncePerRound-v2] ability on any dragon on your player mat.</t>
   </si>
 </sst>
 </file>
@@ -1239,8 +1380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF3D2FC4-B1E8-4571-A9AD-15629DFBF710}" name="Table1" displayName="Table1" ref="A1:R184" totalsRowShown="0">
-  <autoFilter ref="A1:R184" xr:uid="{BF3D2FC4-B1E8-4571-A9AD-15629DFBF710}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF3D2FC4-B1E8-4571-A9AD-15629DFBF710}" name="Table1" displayName="Table1" ref="A1:R259" totalsRowShown="0">
+  <autoFilter ref="A1:R259" xr:uid="{BF3D2FC4-B1E8-4571-A9AD-15629DFBF710}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{ECB89D7E-440F-4064-B43A-758629D175D3}" name="type"/>
     <tableColumn id="2" xr3:uid="{57EF0345-29DF-4547-83A0-FA9357ED827A}" name="number"/>
@@ -1528,21 +1669,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R184"/>
+  <dimension ref="A1:R259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="173.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -1633,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>372</v>
       </c>
@@ -1668,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>372</v>
       </c>
@@ -1706,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>372</v>
       </c>
@@ -1741,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>372</v>
       </c>
@@ -1776,7 +1919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>372</v>
       </c>
@@ -1811,7 +1954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>372</v>
       </c>
@@ -1846,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -1881,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>372</v>
       </c>
@@ -1919,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -1957,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>372</v>
       </c>
@@ -1992,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -2027,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>372</v>
       </c>
@@ -2062,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -2097,7 +2240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -2132,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -2170,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -2208,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -2243,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -2281,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -2316,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>372</v>
       </c>
@@ -2351,7 +2494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>372</v>
       </c>
@@ -2386,7 +2529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>372</v>
       </c>
@@ -2421,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>372</v>
       </c>
@@ -2456,7 +2599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>372</v>
       </c>
@@ -2491,7 +2634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>372</v>
       </c>
@@ -2526,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>372</v>
       </c>
@@ -2561,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>372</v>
       </c>
@@ -2596,7 +2739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>372</v>
       </c>
@@ -2631,7 +2774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>372</v>
       </c>
@@ -2666,7 +2809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>372</v>
       </c>
@@ -2701,7 +2844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>372</v>
       </c>
@@ -2736,7 +2879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>372</v>
       </c>
@@ -2771,7 +2914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>372</v>
       </c>
@@ -2806,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>372</v>
       </c>
@@ -2841,7 +2984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>372</v>
       </c>
@@ -2876,7 +3019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>372</v>
       </c>
@@ -2911,7 +3054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>372</v>
       </c>
@@ -2952,7 +3095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>372</v>
       </c>
@@ -2999,7 +3142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>372</v>
       </c>
@@ -3037,7 +3180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>372</v>
       </c>
@@ -3078,7 +3221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>372</v>
       </c>
@@ -3116,7 +3259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>372</v>
       </c>
@@ -3151,7 +3294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>372</v>
       </c>
@@ -3189,7 +3332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>372</v>
       </c>
@@ -3224,7 +3367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>372</v>
       </c>
@@ -3265,7 +3408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>372</v>
       </c>
@@ -3300,7 +3443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -3335,7 +3478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>372</v>
       </c>
@@ -3385,7 +3528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>372</v>
       </c>
@@ -3420,7 +3563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>372</v>
       </c>
@@ -3461,7 +3604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>372</v>
       </c>
@@ -3499,7 +3642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>372</v>
       </c>
@@ -3537,7 +3680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>372</v>
       </c>
@@ -3584,7 +3727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>372</v>
       </c>
@@ -3625,7 +3768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>372</v>
       </c>
@@ -3666,7 +3809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>372</v>
       </c>
@@ -3704,7 +3847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>372</v>
       </c>
@@ -3742,7 +3885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>372</v>
       </c>
@@ -3783,7 +3926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>372</v>
       </c>
@@ -3821,7 +3964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>372</v>
       </c>
@@ -3865,7 +4008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>372</v>
       </c>
@@ -3900,7 +4043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>372</v>
       </c>
@@ -3944,7 +4087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>372</v>
       </c>
@@ -3979,7 +4122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>372</v>
       </c>
@@ -4017,7 +4160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>372</v>
       </c>
@@ -4055,7 +4198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>372</v>
       </c>
@@ -4096,7 +4239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>372</v>
       </c>
@@ -4131,7 +4274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>372</v>
       </c>
@@ -4166,7 +4309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>372</v>
       </c>
@@ -4207,7 +4350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -4248,7 +4391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -4286,7 +4429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>372</v>
       </c>
@@ -4324,7 +4467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>372</v>
       </c>
@@ -4362,7 +4505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>372</v>
       </c>
@@ -4400,7 +4543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>372</v>
       </c>
@@ -4438,7 +4581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>372</v>
       </c>
@@ -4479,7 +4622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>372</v>
       </c>
@@ -4514,7 +4657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>372</v>
       </c>
@@ -4552,7 +4695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>372</v>
       </c>
@@ -4593,7 +4736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>372</v>
       </c>
@@ -4631,7 +4774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>372</v>
       </c>
@@ -4666,7 +4809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>372</v>
       </c>
@@ -4704,7 +4847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>372</v>
       </c>
@@ -4742,7 +4885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>372</v>
       </c>
@@ -4780,7 +4923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>372</v>
       </c>
@@ -4818,7 +4961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>372</v>
       </c>
@@ -4859,7 +5002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>372</v>
       </c>
@@ -4894,7 +5037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>372</v>
       </c>
@@ -4935,7 +5078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>372</v>
       </c>
@@ -4976,7 +5119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>372</v>
       </c>
@@ -5023,7 +5166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>372</v>
       </c>
@@ -5058,7 +5201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>372</v>
       </c>
@@ -5093,7 +5236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>372</v>
       </c>
@@ -5134,7 +5277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>372</v>
       </c>
@@ -5175,7 +5318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>372</v>
       </c>
@@ -5216,7 +5359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>372</v>
       </c>
@@ -5260,7 +5403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>372</v>
       </c>
@@ -5295,7 +5438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>372</v>
       </c>
@@ -5336,7 +5479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>372</v>
       </c>
@@ -5374,7 +5517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>372</v>
       </c>
@@ -5424,7 +5567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>372</v>
       </c>
@@ -5465,7 +5608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>372</v>
       </c>
@@ -5500,7 +5643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>372</v>
       </c>
@@ -5538,7 +5681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>372</v>
       </c>
@@ -5573,7 +5716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>372</v>
       </c>
@@ -5614,7 +5757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>372</v>
       </c>
@@ -5649,7 +5792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>372</v>
       </c>
@@ -5687,7 +5830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>372</v>
       </c>
@@ -5728,7 +5871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>372</v>
       </c>
@@ -5763,7 +5906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>372</v>
       </c>
@@ -5801,7 +5944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>372</v>
       </c>
@@ -5848,7 +5991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>372</v>
       </c>
@@ -5886,7 +6029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>372</v>
       </c>
@@ -5921,7 +6064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>372</v>
       </c>
@@ -5962,7 +6105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>372</v>
       </c>
@@ -6000,7 +6143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>372</v>
       </c>
@@ -6041,7 +6184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>372</v>
       </c>
@@ -6082,7 +6225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>372</v>
       </c>
@@ -6132,7 +6275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>372</v>
       </c>
@@ -6173,7 +6316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>372</v>
       </c>
@@ -6211,7 +6354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>372</v>
       </c>
@@ -6249,7 +6392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>372</v>
       </c>
@@ -6290,7 +6433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>372</v>
       </c>
@@ -6340,7 +6483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>372</v>
       </c>
@@ -6375,7 +6518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>372</v>
       </c>
@@ -6413,7 +6556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>372</v>
       </c>
@@ -6448,7 +6591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>372</v>
       </c>
@@ -6486,7 +6629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>372</v>
       </c>
@@ -6530,7 +6673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>372</v>
       </c>
@@ -6565,7 +6708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>372</v>
       </c>
@@ -6615,7 +6758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>372</v>
       </c>
@@ -6665,7 +6808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>372</v>
       </c>
@@ -6706,7 +6849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>372</v>
       </c>
@@ -6756,7 +6899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>372</v>
       </c>
@@ -6797,7 +6940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>372</v>
       </c>
@@ -6835,7 +6978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>372</v>
       </c>
@@ -6873,7 +7016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>372</v>
       </c>
@@ -6908,7 +7051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>372</v>
       </c>
@@ -6949,7 +7092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>372</v>
       </c>
@@ -6987,7 +7130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>372</v>
       </c>
@@ -7028,7 +7171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>372</v>
       </c>
@@ -7069,7 +7212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>372</v>
       </c>
@@ -7107,7 +7250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>372</v>
       </c>
@@ -7157,7 +7300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>372</v>
       </c>
@@ -7192,7 +7335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>372</v>
       </c>
@@ -7227,7 +7370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>372</v>
       </c>
@@ -7265,7 +7408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>372</v>
       </c>
@@ -7303,7 +7446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>372</v>
       </c>
@@ -7350,7 +7493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>372</v>
       </c>
@@ -7397,7 +7540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>372</v>
       </c>
@@ -7435,7 +7578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>372</v>
       </c>
@@ -7470,7 +7613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>372</v>
       </c>
@@ -7511,7 +7654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>372</v>
       </c>
@@ -7552,7 +7695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>372</v>
       </c>
@@ -7590,7 +7733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>372</v>
       </c>
@@ -7625,7 +7768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>372</v>
       </c>
@@ -7663,7 +7806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>372</v>
       </c>
@@ -7701,7 +7844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>372</v>
       </c>
@@ -7739,7 +7882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>372</v>
       </c>
@@ -7774,7 +7917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>372</v>
       </c>
@@ -7812,7 +7955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>372</v>
       </c>
@@ -7850,7 +7993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>372</v>
       </c>
@@ -7888,7 +8031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>372</v>
       </c>
@@ -7926,7 +8069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>372</v>
       </c>
@@ -7964,7 +8107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>372</v>
       </c>
@@ -7999,7 +8142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>372</v>
       </c>
@@ -8034,7 +8177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>372</v>
       </c>
@@ -8069,7 +8212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>372</v>
       </c>
@@ -8104,7 +8247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>372</v>
       </c>
@@ -8139,7 +8282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>372</v>
       </c>
@@ -8177,7 +8320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>372</v>
       </c>
@@ -8224,7 +8367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>372</v>
       </c>
@@ -8271,7 +8414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>372</v>
       </c>
@@ -8306,7 +8449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>372</v>
       </c>
@@ -8341,7 +8484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>372</v>
       </c>
@@ -8376,7 +8519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>372</v>
       </c>
@@ -8411,7 +8554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>372</v>
       </c>
@@ -8449,7 +8592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>372</v>
       </c>
@@ -8496,7 +8639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>372</v>
       </c>
@@ -8534,7 +8677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>372</v>
       </c>
@@ -8569,7 +8712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>372</v>
       </c>
@@ -8607,7 +8750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>372</v>
       </c>
@@ -8646,6 +8789,1056 @@
       </c>
       <c r="O184" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>379</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>425</v>
+      </c>
+      <c r="E185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>379</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>380</v>
+      </c>
+      <c r="E186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>379</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="D187" t="s">
+        <v>381</v>
+      </c>
+      <c r="E187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>379</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="D188" t="s">
+        <v>381</v>
+      </c>
+      <c r="E188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>379</v>
+      </c>
+      <c r="B189">
+        <v>5</v>
+      </c>
+      <c r="D189" t="s">
+        <v>382</v>
+      </c>
+      <c r="E189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>379</v>
+      </c>
+      <c r="B190">
+        <v>6</v>
+      </c>
+      <c r="D190" t="s">
+        <v>382</v>
+      </c>
+      <c r="E190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>379</v>
+      </c>
+      <c r="B191">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>383</v>
+      </c>
+      <c r="E191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192">
+        <v>8</v>
+      </c>
+      <c r="D192" t="s">
+        <v>384</v>
+      </c>
+      <c r="E192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>379</v>
+      </c>
+      <c r="B193">
+        <v>9</v>
+      </c>
+      <c r="D193" t="s">
+        <v>383</v>
+      </c>
+      <c r="E193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>379</v>
+      </c>
+      <c r="B194">
+        <v>10</v>
+      </c>
+      <c r="D194" t="s">
+        <v>385</v>
+      </c>
+      <c r="E194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>379</v>
+      </c>
+      <c r="B195">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s">
+        <v>385</v>
+      </c>
+      <c r="E195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>379</v>
+      </c>
+      <c r="B196">
+        <v>12</v>
+      </c>
+      <c r="D196" t="s">
+        <v>123</v>
+      </c>
+      <c r="E196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>379</v>
+      </c>
+      <c r="B197">
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>123</v>
+      </c>
+      <c r="E197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>379</v>
+      </c>
+      <c r="B198">
+        <v>14</v>
+      </c>
+      <c r="D198" t="s">
+        <v>123</v>
+      </c>
+      <c r="E198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>379</v>
+      </c>
+      <c r="B199">
+        <v>15</v>
+      </c>
+      <c r="D199" t="s">
+        <v>386</v>
+      </c>
+      <c r="E199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>379</v>
+      </c>
+      <c r="B200">
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>387</v>
+      </c>
+      <c r="E200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>379</v>
+      </c>
+      <c r="B201">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>388</v>
+      </c>
+      <c r="E201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>379</v>
+      </c>
+      <c r="B202">
+        <v>18</v>
+      </c>
+      <c r="D202" t="s">
+        <v>389</v>
+      </c>
+      <c r="E202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>379</v>
+      </c>
+      <c r="B203">
+        <v>19</v>
+      </c>
+      <c r="D203" t="s">
+        <v>389</v>
+      </c>
+      <c r="E203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>379</v>
+      </c>
+      <c r="B204">
+        <v>20</v>
+      </c>
+      <c r="D204" t="s">
+        <v>390</v>
+      </c>
+      <c r="E204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>379</v>
+      </c>
+      <c r="B205">
+        <v>21</v>
+      </c>
+      <c r="D205" t="s">
+        <v>390</v>
+      </c>
+      <c r="E205" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>379</v>
+      </c>
+      <c r="B206">
+        <v>22</v>
+      </c>
+      <c r="D206" t="s">
+        <v>391</v>
+      </c>
+      <c r="E206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>379</v>
+      </c>
+      <c r="B207">
+        <v>23</v>
+      </c>
+      <c r="D207" t="s">
+        <v>391</v>
+      </c>
+      <c r="E207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>379</v>
+      </c>
+      <c r="B208">
+        <v>24</v>
+      </c>
+      <c r="D208" t="s">
+        <v>391</v>
+      </c>
+      <c r="E208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>379</v>
+      </c>
+      <c r="B209">
+        <v>25</v>
+      </c>
+      <c r="D209" t="s">
+        <v>392</v>
+      </c>
+      <c r="E209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>379</v>
+      </c>
+      <c r="B210">
+        <v>26</v>
+      </c>
+      <c r="D210" t="s">
+        <v>392</v>
+      </c>
+      <c r="E210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>379</v>
+      </c>
+      <c r="B211">
+        <v>27</v>
+      </c>
+      <c r="D211" t="s">
+        <v>140</v>
+      </c>
+      <c r="E211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>379</v>
+      </c>
+      <c r="B212">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>140</v>
+      </c>
+      <c r="E212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>379</v>
+      </c>
+      <c r="B213">
+        <v>29</v>
+      </c>
+      <c r="D213" t="s">
+        <v>393</v>
+      </c>
+      <c r="E213" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>379</v>
+      </c>
+      <c r="B214">
+        <v>30</v>
+      </c>
+      <c r="D214" t="s">
+        <v>393</v>
+      </c>
+      <c r="E214" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>379</v>
+      </c>
+      <c r="B215">
+        <v>31</v>
+      </c>
+      <c r="D215" t="s">
+        <v>393</v>
+      </c>
+      <c r="E215" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>379</v>
+      </c>
+      <c r="B216">
+        <v>32</v>
+      </c>
+      <c r="D216" t="s">
+        <v>394</v>
+      </c>
+      <c r="E216" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>379</v>
+      </c>
+      <c r="B217">
+        <v>33</v>
+      </c>
+      <c r="D217" t="s">
+        <v>395</v>
+      </c>
+      <c r="E217" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>379</v>
+      </c>
+      <c r="B218">
+        <v>34</v>
+      </c>
+      <c r="D218" t="s">
+        <v>396</v>
+      </c>
+      <c r="E218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>379</v>
+      </c>
+      <c r="B219">
+        <v>35</v>
+      </c>
+      <c r="D219" t="s">
+        <v>397</v>
+      </c>
+      <c r="E219" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>379</v>
+      </c>
+      <c r="B220">
+        <v>36</v>
+      </c>
+      <c r="D220" t="s">
+        <v>398</v>
+      </c>
+      <c r="E220" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>379</v>
+      </c>
+      <c r="B221">
+        <v>37</v>
+      </c>
+      <c r="D221" t="s">
+        <v>398</v>
+      </c>
+      <c r="E221" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>379</v>
+      </c>
+      <c r="B222">
+        <v>38</v>
+      </c>
+      <c r="D222" t="s">
+        <v>399</v>
+      </c>
+      <c r="E222" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>379</v>
+      </c>
+      <c r="B223">
+        <v>39</v>
+      </c>
+      <c r="D223" t="s">
+        <v>399</v>
+      </c>
+      <c r="E223" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>379</v>
+      </c>
+      <c r="B224">
+        <v>40</v>
+      </c>
+      <c r="D224" t="s">
+        <v>400</v>
+      </c>
+      <c r="E224" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>379</v>
+      </c>
+      <c r="B225">
+        <v>41</v>
+      </c>
+      <c r="D225" t="s">
+        <v>400</v>
+      </c>
+      <c r="E225" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>379</v>
+      </c>
+      <c r="B226">
+        <v>42</v>
+      </c>
+      <c r="D226" t="s">
+        <v>401</v>
+      </c>
+      <c r="E226" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>379</v>
+      </c>
+      <c r="B227">
+        <v>43</v>
+      </c>
+      <c r="D227" t="s">
+        <v>401</v>
+      </c>
+      <c r="E227" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>379</v>
+      </c>
+      <c r="B228">
+        <v>44</v>
+      </c>
+      <c r="D228" t="s">
+        <v>402</v>
+      </c>
+      <c r="E228" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>379</v>
+      </c>
+      <c r="B229">
+        <v>45</v>
+      </c>
+      <c r="D229" t="s">
+        <v>402</v>
+      </c>
+      <c r="E229" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>379</v>
+      </c>
+      <c r="B230">
+        <v>46</v>
+      </c>
+      <c r="D230" t="s">
+        <v>403</v>
+      </c>
+      <c r="E230" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>379</v>
+      </c>
+      <c r="B231">
+        <v>47</v>
+      </c>
+      <c r="D231" t="s">
+        <v>404</v>
+      </c>
+      <c r="E231" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>379</v>
+      </c>
+      <c r="B232">
+        <v>48</v>
+      </c>
+      <c r="D232" t="s">
+        <v>404</v>
+      </c>
+      <c r="E232" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>379</v>
+      </c>
+      <c r="B233">
+        <v>49</v>
+      </c>
+      <c r="D233" t="s">
+        <v>147</v>
+      </c>
+      <c r="E233" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>379</v>
+      </c>
+      <c r="B234">
+        <v>50</v>
+      </c>
+      <c r="D234" t="s">
+        <v>405</v>
+      </c>
+      <c r="E234" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>379</v>
+      </c>
+      <c r="B235">
+        <v>51</v>
+      </c>
+      <c r="D235" t="s">
+        <v>405</v>
+      </c>
+      <c r="E235" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>379</v>
+      </c>
+      <c r="B236">
+        <v>52</v>
+      </c>
+      <c r="D236" t="s">
+        <v>406</v>
+      </c>
+      <c r="E236" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>379</v>
+      </c>
+      <c r="B237">
+        <v>53</v>
+      </c>
+      <c r="D237" t="s">
+        <v>406</v>
+      </c>
+      <c r="E237" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>379</v>
+      </c>
+      <c r="B238">
+        <v>54</v>
+      </c>
+      <c r="D238" t="s">
+        <v>406</v>
+      </c>
+      <c r="E238" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>379</v>
+      </c>
+      <c r="B239">
+        <v>55</v>
+      </c>
+      <c r="D239" t="s">
+        <v>407</v>
+      </c>
+      <c r="E239" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>379</v>
+      </c>
+      <c r="B240">
+        <v>56</v>
+      </c>
+      <c r="D240" t="s">
+        <v>407</v>
+      </c>
+      <c r="E240" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>379</v>
+      </c>
+      <c r="B241">
+        <v>57</v>
+      </c>
+      <c r="D241" t="s">
+        <v>407</v>
+      </c>
+      <c r="E241" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>379</v>
+      </c>
+      <c r="B242">
+        <v>58</v>
+      </c>
+      <c r="D242" t="s">
+        <v>408</v>
+      </c>
+      <c r="E242" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>379</v>
+      </c>
+      <c r="B243">
+        <v>59</v>
+      </c>
+      <c r="D243" t="s">
+        <v>409</v>
+      </c>
+      <c r="E243" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>379</v>
+      </c>
+      <c r="B244">
+        <v>60</v>
+      </c>
+      <c r="D244" t="s">
+        <v>410</v>
+      </c>
+      <c r="E244" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>379</v>
+      </c>
+      <c r="B245">
+        <v>61</v>
+      </c>
+      <c r="D245" t="s">
+        <v>411</v>
+      </c>
+      <c r="E245" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>379</v>
+      </c>
+      <c r="B246">
+        <v>62</v>
+      </c>
+      <c r="D246" t="s">
+        <v>412</v>
+      </c>
+      <c r="E246" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>379</v>
+      </c>
+      <c r="B247">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>413</v>
+      </c>
+      <c r="E247" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>379</v>
+      </c>
+      <c r="B248">
+        <v>64</v>
+      </c>
+      <c r="D248" t="s">
+        <v>414</v>
+      </c>
+      <c r="E248" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>379</v>
+      </c>
+      <c r="B249">
+        <v>65</v>
+      </c>
+      <c r="D249" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>379</v>
+      </c>
+      <c r="B250">
+        <v>66</v>
+      </c>
+      <c r="D250" t="s">
+        <v>416</v>
+      </c>
+      <c r="E250" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>379</v>
+      </c>
+      <c r="B251">
+        <v>67</v>
+      </c>
+      <c r="D251" t="s">
+        <v>417</v>
+      </c>
+      <c r="E251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>379</v>
+      </c>
+      <c r="B252">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>417</v>
+      </c>
+      <c r="E252" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>379</v>
+      </c>
+      <c r="B253">
+        <v>69</v>
+      </c>
+      <c r="D253" t="s">
+        <v>418</v>
+      </c>
+      <c r="E253" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>379</v>
+      </c>
+      <c r="B254">
+        <v>70</v>
+      </c>
+      <c r="D254" t="s">
+        <v>419</v>
+      </c>
+      <c r="E254" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>379</v>
+      </c>
+      <c r="B255">
+        <v>71</v>
+      </c>
+      <c r="D255" t="s">
+        <v>420</v>
+      </c>
+      <c r="E255" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>379</v>
+      </c>
+      <c r="B256">
+        <v>72</v>
+      </c>
+      <c r="D256" t="s">
+        <v>421</v>
+      </c>
+      <c r="E256" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>379</v>
+      </c>
+      <c r="B257">
+        <v>73</v>
+      </c>
+      <c r="D257" t="s">
+        <v>422</v>
+      </c>
+      <c r="E257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>379</v>
+      </c>
+      <c r="B258">
+        <v>74</v>
+      </c>
+      <c r="D258" t="s">
+        <v>423</v>
+      </c>
+      <c r="E258" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>379</v>
+      </c>
+      <c r="B259">
+        <v>75</v>
+      </c>
+      <c r="D259" t="s">
+        <v>424</v>
+      </c>
+      <c r="E259" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/cards.xlsx
+++ b/scripts/cards.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cief/projects/wyrmsearch/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE12383-F8B1-144A-8BD9-DD89B9233AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8204D07C-0087-E049-8BD9-1EB9EFF762BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$S$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$T$364</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="605">
   <si>
     <t>type</t>
   </si>
@@ -1835,13 +1835,16 @@
   </si>
   <si>
     <t>Fully train any *fledgling* for free. All others may train any *fledgling* 1x for free.</t>
+  </si>
+  <si>
+    <t>ignoreCost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1853,6 +1856,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1899,6 +1909,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1926,20 +1950,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1954,9 +1964,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C5CB8CC5-28B5-2140-BCD3-C65972FCCCA5}" name="Table2" displayName="Table2" ref="A1:S364" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:S364" xr:uid="{C5CB8CC5-28B5-2140-BCD3-C65972FCCCA5}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C5CB8CC5-28B5-2140-BCD3-C65972FCCCA5}" name="Table2" displayName="Table2" ref="A1:T364" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:T364" xr:uid="{C5CB8CC5-28B5-2140-BCD3-C65972FCCCA5}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{B9AEB3C6-DE66-2C4A-9CE0-A048320F878A}" name="type"/>
     <tableColumn id="2" xr3:uid="{9BBAEA21-7E23-DF4D-9796-B0B2F714E05F}" name="number"/>
     <tableColumn id="3" xr3:uid="{9F451EB2-2692-1A4B-BC00-C10B1CC683F9}" name="name"/>
@@ -1975,6 +1985,7 @@
     <tableColumn id="16" xr3:uid="{50E7687C-B8B9-4844-9436-7DD510C2DE64}" name="Amethyst Abyss"/>
     <tableColumn id="17" xr3:uid="{3EFDDD52-4604-3B4D-A064-B4FE2E65E267}" name="Egg"/>
     <tableColumn id="18" xr3:uid="{09FBB65C-8968-884D-98B4-19B310D52397}" name="Milk"/>
+    <tableColumn id="22" xr3:uid="{22847CC8-F23A-D04D-9BDC-94C4C86D8D9C}" name="ignoreCost"/>
     <tableColumn id="19" xr3:uid="{393BCD53-E89B-6C46-8E5E-F863C5BD26D6}" name="expansion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2266,11 +2277,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S364"/>
+  <dimension ref="A1:T364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D269" sqref="D269"/>
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I331" sqref="I331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2282,10 +2293,10 @@
     <col min="14" max="14" width="14.6640625" customWidth="1"/>
     <col min="15" max="15" width="13.6640625" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2341,10 +2352,13 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2378,11 +2392,11 @@
       <c r="R2">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2416,11 +2430,11 @@
       <c r="R3">
         <v>3</v>
       </c>
-      <c r="S3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2457,11 +2471,11 @@
       <c r="R4">
         <v>3</v>
       </c>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2495,11 +2509,11 @@
       <c r="R5">
         <v>2</v>
       </c>
-      <c r="S5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2533,11 +2547,11 @@
       <c r="R6">
         <v>3</v>
       </c>
-      <c r="S6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2571,11 +2585,11 @@
       <c r="R7">
         <v>3</v>
       </c>
-      <c r="S7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2609,11 +2623,11 @@
       <c r="R8">
         <v>3</v>
       </c>
-      <c r="S8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2647,11 +2661,11 @@
       <c r="R9">
         <v>3</v>
       </c>
-      <c r="S9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2688,11 +2702,11 @@
       <c r="R10">
         <v>1</v>
       </c>
-      <c r="S10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2729,11 +2743,11 @@
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="S11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2767,11 +2781,11 @@
       <c r="R12">
         <v>1</v>
       </c>
-      <c r="S12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2805,11 +2819,11 @@
       <c r="R13">
         <v>3</v>
       </c>
-      <c r="S13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2843,11 +2857,11 @@
       <c r="R14">
         <v>1</v>
       </c>
-      <c r="S14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2881,11 +2895,11 @@
       <c r="R15">
         <v>2</v>
       </c>
-      <c r="S15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2919,11 +2933,11 @@
       <c r="R16">
         <v>1</v>
       </c>
-      <c r="S16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2960,11 +2974,11 @@
       <c r="R17">
         <v>1</v>
       </c>
-      <c r="S17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3001,11 +3015,11 @@
       <c r="R18">
         <v>1</v>
       </c>
-      <c r="S18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3039,11 +3053,11 @@
       <c r="R19">
         <v>2</v>
       </c>
-      <c r="S19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3080,11 +3094,11 @@
       <c r="R20">
         <v>2</v>
       </c>
-      <c r="S20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3118,11 +3132,11 @@
       <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3156,11 +3170,11 @@
       <c r="R22">
         <v>2</v>
       </c>
-      <c r="S22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3194,11 +3208,11 @@
       <c r="R23">
         <v>2</v>
       </c>
-      <c r="S23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3232,11 +3246,11 @@
       <c r="R24">
         <v>1</v>
       </c>
-      <c r="S24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3270,11 +3284,11 @@
       <c r="R25">
         <v>2</v>
       </c>
-      <c r="S25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3308,11 +3322,11 @@
       <c r="R26">
         <v>3</v>
       </c>
-      <c r="S26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3346,11 +3360,11 @@
       <c r="R27">
         <v>1</v>
       </c>
-      <c r="S27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3384,11 +3398,11 @@
       <c r="R28">
         <v>2</v>
       </c>
-      <c r="S28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3422,11 +3436,11 @@
       <c r="R29">
         <v>3</v>
       </c>
-      <c r="S29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -3460,11 +3474,11 @@
       <c r="R30">
         <v>2</v>
       </c>
-      <c r="S30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3498,11 +3512,11 @@
       <c r="R31">
         <v>3</v>
       </c>
-      <c r="S31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -3536,11 +3550,11 @@
       <c r="R32">
         <v>2</v>
       </c>
-      <c r="S32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3574,11 +3588,11 @@
       <c r="R33">
         <v>3</v>
       </c>
-      <c r="S33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3612,11 +3626,11 @@
       <c r="R34">
         <v>3</v>
       </c>
-      <c r="S34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3650,11 +3664,11 @@
       <c r="R35">
         <v>2</v>
       </c>
-      <c r="S35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3688,11 +3702,11 @@
       <c r="R36">
         <v>3</v>
       </c>
-      <c r="S36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3726,11 +3740,11 @@
       <c r="O37" t="s">
         <v>25</v>
       </c>
-      <c r="S37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -3764,11 +3778,11 @@
       <c r="P38" t="s">
         <v>25</v>
       </c>
-      <c r="S38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3808,11 +3822,11 @@
       <c r="P39" t="s">
         <v>25</v>
       </c>
-      <c r="S39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -3858,11 +3872,11 @@
       <c r="P40" t="s">
         <v>25</v>
       </c>
-      <c r="S40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3899,11 +3913,11 @@
       <c r="O41" t="s">
         <v>25</v>
       </c>
-      <c r="S41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3943,11 +3957,11 @@
       <c r="O42" t="s">
         <v>25</v>
       </c>
-      <c r="S42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3984,11 +3998,11 @@
       <c r="O43" t="s">
         <v>25</v>
       </c>
-      <c r="S43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -4022,11 +4036,11 @@
       <c r="P44" t="s">
         <v>25</v>
       </c>
-      <c r="S44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -4063,11 +4077,11 @@
       <c r="O45" t="s">
         <v>25</v>
       </c>
-      <c r="S45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -4101,11 +4115,11 @@
       <c r="P46" t="s">
         <v>25</v>
       </c>
-      <c r="S46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -4145,11 +4159,11 @@
       <c r="P47" t="s">
         <v>25</v>
       </c>
-      <c r="S47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -4183,11 +4197,11 @@
       <c r="O48" t="s">
         <v>25</v>
       </c>
-      <c r="S48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -4221,11 +4235,11 @@
       <c r="N49" t="s">
         <v>25</v>
       </c>
-      <c r="S49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -4274,11 +4288,11 @@
       <c r="P50" t="s">
         <v>25</v>
       </c>
-      <c r="S50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -4312,11 +4326,11 @@
       <c r="O51" t="s">
         <v>25</v>
       </c>
-      <c r="S51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -4356,11 +4370,11 @@
       <c r="P52" t="s">
         <v>25</v>
       </c>
-      <c r="S52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -4397,11 +4411,11 @@
       <c r="P53" t="s">
         <v>25</v>
       </c>
-      <c r="S53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -4438,11 +4452,11 @@
       <c r="N54" t="s">
         <v>25</v>
       </c>
-      <c r="S54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -4488,11 +4502,11 @@
       <c r="P55" t="s">
         <v>25</v>
       </c>
-      <c r="S55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -4532,11 +4546,11 @@
       <c r="P56" t="s">
         <v>25</v>
       </c>
-      <c r="S56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -4576,11 +4590,11 @@
       <c r="O57" t="s">
         <v>25</v>
       </c>
-      <c r="S57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -4617,11 +4631,11 @@
       <c r="O58" t="s">
         <v>25</v>
       </c>
-      <c r="S58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -4658,11 +4672,11 @@
       <c r="O59" t="s">
         <v>25</v>
       </c>
-      <c r="S59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -4702,11 +4716,11 @@
       <c r="O60" t="s">
         <v>25</v>
       </c>
-      <c r="S60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -4743,11 +4757,11 @@
       <c r="N61" t="s">
         <v>25</v>
       </c>
-      <c r="S61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -4790,11 +4804,11 @@
       <c r="O62" t="s">
         <v>25</v>
       </c>
-      <c r="S62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -4828,11 +4842,11 @@
       <c r="P63" t="s">
         <v>25</v>
       </c>
-      <c r="S63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -4875,11 +4889,11 @@
       <c r="P64" t="s">
         <v>25</v>
       </c>
-      <c r="S64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -4913,11 +4927,11 @@
       <c r="O65" t="s">
         <v>25</v>
       </c>
-      <c r="S65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -4954,11 +4968,11 @@
       <c r="P66" t="s">
         <v>25</v>
       </c>
-      <c r="S66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -4995,11 +5009,11 @@
       <c r="O67" t="s">
         <v>25</v>
       </c>
-      <c r="S67" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -5039,11 +5053,11 @@
       <c r="O68" t="s">
         <v>25</v>
       </c>
-      <c r="S68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -5077,11 +5091,11 @@
       <c r="N69" t="s">
         <v>25</v>
       </c>
-      <c r="S69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -5115,11 +5129,11 @@
       <c r="O70" t="s">
         <v>25</v>
       </c>
-      <c r="S70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -5159,11 +5173,11 @@
       <c r="P71" t="s">
         <v>25</v>
       </c>
-      <c r="S71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -5203,11 +5217,11 @@
       <c r="O72" t="s">
         <v>25</v>
       </c>
-      <c r="S72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -5244,11 +5258,11 @@
       <c r="O73" t="s">
         <v>25</v>
       </c>
-      <c r="S73" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -5285,11 +5299,11 @@
       <c r="P74" t="s">
         <v>25</v>
       </c>
-      <c r="S74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -5326,11 +5340,11 @@
       <c r="N75" t="s">
         <v>25</v>
       </c>
-      <c r="S75" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -5367,11 +5381,11 @@
       <c r="P76" t="s">
         <v>25</v>
       </c>
-      <c r="S76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -5408,11 +5422,11 @@
       <c r="N77" t="s">
         <v>25</v>
       </c>
-      <c r="S77" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -5452,11 +5466,11 @@
       <c r="P78" t="s">
         <v>25</v>
       </c>
-      <c r="S78" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -5490,11 +5504,11 @@
       <c r="P79" t="s">
         <v>25</v>
       </c>
-      <c r="S79" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -5531,11 +5545,11 @@
       <c r="P80" t="s">
         <v>25</v>
       </c>
-      <c r="S80" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -5575,11 +5589,11 @@
       <c r="O81" t="s">
         <v>25</v>
       </c>
-      <c r="S81" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -5616,11 +5630,11 @@
       <c r="N82" t="s">
         <v>25</v>
       </c>
-      <c r="S82" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -5654,11 +5668,11 @@
       <c r="N83" t="s">
         <v>25</v>
       </c>
-      <c r="S83" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -5695,11 +5709,11 @@
       <c r="P84" t="s">
         <v>25</v>
       </c>
-      <c r="S84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -5736,11 +5750,11 @@
       <c r="O85" t="s">
         <v>25</v>
       </c>
-      <c r="S85" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -5777,11 +5791,11 @@
       <c r="N86" t="s">
         <v>25</v>
       </c>
-      <c r="S86" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -5818,11 +5832,11 @@
       <c r="O87" t="s">
         <v>25</v>
       </c>
-      <c r="S87" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -5862,11 +5876,11 @@
       <c r="P88" t="s">
         <v>25</v>
       </c>
-      <c r="S88" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -5900,11 +5914,11 @@
       <c r="O89" t="s">
         <v>25</v>
       </c>
-      <c r="S89" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -5944,11 +5958,11 @@
       <c r="N90" t="s">
         <v>25</v>
       </c>
-      <c r="S90" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -5988,11 +6002,11 @@
       <c r="P91" t="s">
         <v>25</v>
       </c>
-      <c r="S91" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -6038,11 +6052,11 @@
       <c r="P92" t="s">
         <v>25</v>
       </c>
-      <c r="S92" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -6076,11 +6090,11 @@
       <c r="P93" t="s">
         <v>25</v>
       </c>
-      <c r="S93" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -6114,11 +6128,11 @@
       <c r="O94" t="s">
         <v>25</v>
       </c>
-      <c r="S94" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -6158,11 +6172,11 @@
       <c r="P95" t="s">
         <v>25</v>
       </c>
-      <c r="S95" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -6202,11 +6216,11 @@
       <c r="P96" t="s">
         <v>25</v>
       </c>
-      <c r="S96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -6246,11 +6260,11 @@
       <c r="P97" t="s">
         <v>25</v>
       </c>
-      <c r="S97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -6293,11 +6307,11 @@
       <c r="O98" t="s">
         <v>25</v>
       </c>
-      <c r="S98" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -6331,11 +6345,11 @@
       <c r="O99" t="s">
         <v>25</v>
       </c>
-      <c r="S99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -6375,11 +6389,11 @@
       <c r="P100" t="s">
         <v>25</v>
       </c>
-      <c r="S100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -6416,11 +6430,11 @@
       <c r="N101" t="s">
         <v>25</v>
       </c>
-      <c r="S101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -6469,11 +6483,11 @@
       <c r="P102" t="s">
         <v>25</v>
       </c>
-      <c r="S102" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -6513,11 +6527,11 @@
       <c r="P103" t="s">
         <v>25</v>
       </c>
-      <c r="S103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -6551,11 +6565,11 @@
       <c r="O104" t="s">
         <v>25</v>
       </c>
-      <c r="S104" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -6592,11 +6606,11 @@
       <c r="N105" t="s">
         <v>25</v>
       </c>
-      <c r="S105" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -6630,11 +6644,11 @@
       <c r="P106" t="s">
         <v>25</v>
       </c>
-      <c r="S106" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -6674,11 +6688,11 @@
       <c r="P107" t="s">
         <v>25</v>
       </c>
-      <c r="S107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -6712,11 +6726,11 @@
       <c r="N108" t="s">
         <v>25</v>
       </c>
-      <c r="S108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -6753,11 +6767,11 @@
       <c r="O109" t="s">
         <v>25</v>
       </c>
-      <c r="S109" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -6797,11 +6811,11 @@
       <c r="O110" t="s">
         <v>25</v>
       </c>
-      <c r="S110" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -6835,11 +6849,11 @@
       <c r="O111" t="s">
         <v>25</v>
       </c>
-      <c r="S111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -6876,11 +6890,11 @@
       <c r="N112" t="s">
         <v>25</v>
       </c>
-      <c r="S112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T112" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -6926,11 +6940,11 @@
       <c r="P113" t="s">
         <v>25</v>
       </c>
-      <c r="S113" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -6967,11 +6981,11 @@
       <c r="P114" t="s">
         <v>25</v>
       </c>
-      <c r="S114" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -7005,11 +7019,11 @@
       <c r="P115" t="s">
         <v>25</v>
       </c>
-      <c r="S115" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -7049,11 +7063,11 @@
       <c r="P116" t="s">
         <v>25</v>
       </c>
-      <c r="S116" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -7090,11 +7104,11 @@
       <c r="O117" t="s">
         <v>25</v>
       </c>
-      <c r="S117" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T117" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -7134,11 +7148,11 @@
       <c r="P118" t="s">
         <v>25</v>
       </c>
-      <c r="S118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T118" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -7178,11 +7192,11 @@
       <c r="P119" t="s">
         <v>25</v>
       </c>
-      <c r="S119" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -7231,11 +7245,11 @@
       <c r="P120" t="s">
         <v>25</v>
       </c>
-      <c r="S120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T120" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -7275,11 +7289,11 @@
       <c r="O121" t="s">
         <v>25</v>
       </c>
-      <c r="S121" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -7316,11 +7330,11 @@
       <c r="O122" t="s">
         <v>25</v>
       </c>
-      <c r="S122" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T122" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -7357,11 +7371,11 @@
       <c r="P123" t="s">
         <v>25</v>
       </c>
-      <c r="S123" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -7401,11 +7415,11 @@
       <c r="P124" t="s">
         <v>25</v>
       </c>
-      <c r="S124" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T124" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -7454,11 +7468,11 @@
       <c r="P125" t="s">
         <v>25</v>
       </c>
-      <c r="S125" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T125" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -7492,11 +7506,11 @@
       <c r="N126" t="s">
         <v>25</v>
       </c>
-      <c r="S126" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T126" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -7533,11 +7547,11 @@
       <c r="O127" t="s">
         <v>25</v>
       </c>
-      <c r="S127" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T127" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -7571,11 +7585,11 @@
       <c r="O128" t="s">
         <v>25</v>
       </c>
-      <c r="S128" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T128" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -7612,11 +7626,11 @@
       <c r="N129" t="s">
         <v>25</v>
       </c>
-      <c r="S129" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -7659,11 +7673,11 @@
       <c r="P130" t="s">
         <v>25</v>
       </c>
-      <c r="S130" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T130" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -7697,11 +7711,11 @@
       <c r="N131" t="s">
         <v>25</v>
       </c>
-      <c r="S131" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T131" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -7750,11 +7764,11 @@
       <c r="P132" t="s">
         <v>25</v>
       </c>
-      <c r="S132" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T132" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -7803,11 +7817,11 @@
       <c r="P133" t="s">
         <v>25</v>
       </c>
-      <c r="S133" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -7847,11 +7861,11 @@
       <c r="N134" t="s">
         <v>25</v>
       </c>
-      <c r="S134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -7900,11 +7914,11 @@
       <c r="P135" t="s">
         <v>25</v>
       </c>
-      <c r="S135" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -7944,11 +7958,11 @@
       <c r="P136" t="s">
         <v>25</v>
       </c>
-      <c r="S136" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T136" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -7985,11 +7999,11 @@
       <c r="N137" t="s">
         <v>25</v>
       </c>
-      <c r="S137" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -8026,11 +8040,11 @@
       <c r="P138" t="s">
         <v>25</v>
       </c>
-      <c r="S138" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T138" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -8064,11 +8078,11 @@
       <c r="P139" t="s">
         <v>25</v>
       </c>
-      <c r="S139" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T139" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -8108,11 +8122,11 @@
       <c r="P140" t="s">
         <v>25</v>
       </c>
-      <c r="S140" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T140" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -8149,11 +8163,11 @@
       <c r="P141" t="s">
         <v>25</v>
       </c>
-      <c r="S141" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T141" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -8193,11 +8207,11 @@
       <c r="P142" t="s">
         <v>25</v>
       </c>
-      <c r="S142" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T142" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -8237,11 +8251,11 @@
       <c r="P143" t="s">
         <v>25</v>
       </c>
-      <c r="S143" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -8278,11 +8292,11 @@
       <c r="P144" t="s">
         <v>25</v>
       </c>
-      <c r="S144" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T144" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -8331,11 +8345,11 @@
       <c r="P145" t="s">
         <v>25</v>
       </c>
-      <c r="S145" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T145" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -8369,11 +8383,11 @@
       <c r="P146" t="s">
         <v>25</v>
       </c>
-      <c r="S146" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -8407,11 +8421,11 @@
       <c r="N147" t="s">
         <v>25</v>
       </c>
-      <c r="S147" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -8448,11 +8462,11 @@
       <c r="O148" t="s">
         <v>25</v>
       </c>
-      <c r="S148" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T148" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -8489,11 +8503,11 @@
       <c r="N149" t="s">
         <v>25</v>
       </c>
-      <c r="S149" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T149" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -8539,11 +8553,11 @@
       <c r="P150" t="s">
         <v>25</v>
       </c>
-      <c r="S150" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T150" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -8589,11 +8603,11 @@
       <c r="P151" t="s">
         <v>25</v>
       </c>
-      <c r="S151" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T151" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -8630,11 +8644,11 @@
       <c r="O152" t="s">
         <v>25</v>
       </c>
-      <c r="S152" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T152" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -8668,11 +8682,11 @@
       <c r="N153" t="s">
         <v>25</v>
       </c>
-      <c r="S153" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T153" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -8712,11 +8726,11 @@
       <c r="P154" t="s">
         <v>25</v>
       </c>
-      <c r="S154" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T154" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -8756,11 +8770,11 @@
       <c r="P155" t="s">
         <v>25</v>
       </c>
-      <c r="S155" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T155" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -8797,11 +8811,11 @@
       <c r="N156" t="s">
         <v>25</v>
       </c>
-      <c r="S156" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -8835,11 +8849,11 @@
       <c r="N157" t="s">
         <v>25</v>
       </c>
-      <c r="S157" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T157" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -8876,11 +8890,11 @@
       <c r="N158" t="s">
         <v>25</v>
       </c>
-      <c r="S158" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T158" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -8917,11 +8931,11 @@
       <c r="N159" t="s">
         <v>25</v>
       </c>
-      <c r="S159" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -8958,11 +8972,11 @@
       <c r="O160" t="s">
         <v>25</v>
       </c>
-      <c r="S160" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T160" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -8996,11 +9010,11 @@
       <c r="O161" t="s">
         <v>25</v>
       </c>
-      <c r="S161" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -9037,11 +9051,11 @@
       <c r="O162" t="s">
         <v>25</v>
       </c>
-      <c r="S162" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T162" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -9078,11 +9092,11 @@
       <c r="O163" t="s">
         <v>25</v>
       </c>
-      <c r="S163" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T163" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -9119,11 +9133,11 @@
       <c r="N164" t="s">
         <v>25</v>
       </c>
-      <c r="S164" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T164" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -9160,11 +9174,11 @@
       <c r="O165" t="s">
         <v>25</v>
       </c>
-      <c r="S165" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T165" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -9201,11 +9215,11 @@
       <c r="O166" t="s">
         <v>25</v>
       </c>
-      <c r="S166" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T166" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -9239,11 +9253,11 @@
       <c r="N167" t="s">
         <v>25</v>
       </c>
-      <c r="S167" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T167" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -9277,11 +9291,11 @@
       <c r="N168" t="s">
         <v>25</v>
       </c>
-      <c r="S168" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T168" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -9315,11 +9329,11 @@
       <c r="N169" t="s">
         <v>25</v>
       </c>
-      <c r="S169" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T169" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -9353,11 +9367,11 @@
       <c r="N170" t="s">
         <v>25</v>
       </c>
-      <c r="S170" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T170" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -9391,11 +9405,11 @@
       <c r="N171" t="s">
         <v>25</v>
       </c>
-      <c r="S171" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T171" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -9432,11 +9446,11 @@
       <c r="O172" t="s">
         <v>25</v>
       </c>
-      <c r="S172" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T172" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -9482,11 +9496,11 @@
       <c r="P173" t="s">
         <v>25</v>
       </c>
-      <c r="S173" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T173" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -9532,11 +9546,11 @@
       <c r="P174" t="s">
         <v>25</v>
       </c>
-      <c r="S174" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T174" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -9570,11 +9584,11 @@
       <c r="N175" t="s">
         <v>25</v>
       </c>
-      <c r="S175" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T175" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -9608,11 +9622,11 @@
       <c r="O176" t="s">
         <v>25</v>
       </c>
-      <c r="S176" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T176" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -9646,11 +9660,11 @@
       <c r="O177" t="s">
         <v>25</v>
       </c>
-      <c r="S177" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T177" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -9684,11 +9698,11 @@
       <c r="N178" t="s">
         <v>25</v>
       </c>
-      <c r="S178" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T178" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -9725,11 +9739,11 @@
       <c r="N179" t="s">
         <v>25</v>
       </c>
-      <c r="S179" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T179" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -9775,11 +9789,11 @@
       <c r="P180" t="s">
         <v>25</v>
       </c>
-      <c r="S180" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T180" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -9816,11 +9830,11 @@
       <c r="O181" t="s">
         <v>25</v>
       </c>
-      <c r="S181" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T181" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -9854,11 +9868,11 @@
       <c r="N182" t="s">
         <v>25</v>
       </c>
-      <c r="S182" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T182" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -9895,11 +9909,11 @@
       <c r="O183" t="s">
         <v>25</v>
       </c>
-      <c r="S183" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T183" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -9939,11 +9953,11 @@
       <c r="O184" t="s">
         <v>25</v>
       </c>
-      <c r="S184" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>373</v>
       </c>
@@ -9956,11 +9970,11 @@
       <c r="E185" t="s">
         <v>102</v>
       </c>
-      <c r="S185" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T185" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>373</v>
       </c>
@@ -9973,11 +9987,11 @@
       <c r="E186" t="s">
         <v>102</v>
       </c>
-      <c r="S186" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T186" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -9990,11 +10004,11 @@
       <c r="E187" t="s">
         <v>102</v>
       </c>
-      <c r="S187" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T187" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>373</v>
       </c>
@@ -10007,11 +10021,11 @@
       <c r="E188" t="s">
         <v>102</v>
       </c>
-      <c r="S188" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T188" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>373</v>
       </c>
@@ -10024,11 +10038,11 @@
       <c r="E189" t="s">
         <v>102</v>
       </c>
-      <c r="S189" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T189" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>373</v>
       </c>
@@ -10041,11 +10055,11 @@
       <c r="E190" t="s">
         <v>102</v>
       </c>
-      <c r="S190" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T190" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>373</v>
       </c>
@@ -10058,11 +10072,11 @@
       <c r="E191" t="s">
         <v>102</v>
       </c>
-      <c r="S191" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T191" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>373</v>
       </c>
@@ -10075,11 +10089,11 @@
       <c r="E192" t="s">
         <v>102</v>
       </c>
-      <c r="S192" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T192" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>373</v>
       </c>
@@ -10092,11 +10106,11 @@
       <c r="E193" t="s">
         <v>102</v>
       </c>
-      <c r="S193" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T193" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>373</v>
       </c>
@@ -10109,11 +10123,11 @@
       <c r="E194" t="s">
         <v>102</v>
       </c>
-      <c r="S194" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T194" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>373</v>
       </c>
@@ -10126,11 +10140,11 @@
       <c r="E195" t="s">
         <v>102</v>
       </c>
-      <c r="S195" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T195" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>373</v>
       </c>
@@ -10143,11 +10157,11 @@
       <c r="E196" t="s">
         <v>102</v>
       </c>
-      <c r="S196" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T196" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>373</v>
       </c>
@@ -10160,11 +10174,11 @@
       <c r="E197" t="s">
         <v>102</v>
       </c>
-      <c r="S197" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T197" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>373</v>
       </c>
@@ -10177,11 +10191,11 @@
       <c r="E198" t="s">
         <v>102</v>
       </c>
-      <c r="S198" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T198" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>373</v>
       </c>
@@ -10194,11 +10208,11 @@
       <c r="E199" t="s">
         <v>102</v>
       </c>
-      <c r="S199" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T199" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>373</v>
       </c>
@@ -10211,11 +10225,11 @@
       <c r="E200" t="s">
         <v>102</v>
       </c>
-      <c r="S200" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T200" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>373</v>
       </c>
@@ -10228,11 +10242,11 @@
       <c r="E201" t="s">
         <v>102</v>
       </c>
-      <c r="S201" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T201" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>373</v>
       </c>
@@ -10245,11 +10259,11 @@
       <c r="E202" t="s">
         <v>102</v>
       </c>
-      <c r="S202" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T202" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>373</v>
       </c>
@@ -10262,11 +10276,11 @@
       <c r="E203" t="s">
         <v>102</v>
       </c>
-      <c r="S203" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T203" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>373</v>
       </c>
@@ -10279,11 +10293,11 @@
       <c r="E204" t="s">
         <v>102</v>
       </c>
-      <c r="S204" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T204" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>373</v>
       </c>
@@ -10296,11 +10310,11 @@
       <c r="E205" t="s">
         <v>102</v>
       </c>
-      <c r="S205" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T205" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>373</v>
       </c>
@@ -10313,11 +10327,11 @@
       <c r="E206" t="s">
         <v>102</v>
       </c>
-      <c r="S206" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T206" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>373</v>
       </c>
@@ -10330,11 +10344,11 @@
       <c r="E207" t="s">
         <v>102</v>
       </c>
-      <c r="S207" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T207" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>373</v>
       </c>
@@ -10347,11 +10361,11 @@
       <c r="E208" t="s">
         <v>102</v>
       </c>
-      <c r="S208" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>373</v>
       </c>
@@ -10364,11 +10378,11 @@
       <c r="E209" t="s">
         <v>102</v>
       </c>
-      <c r="S209" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T209" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>373</v>
       </c>
@@ -10381,11 +10395,11 @@
       <c r="E210" t="s">
         <v>102</v>
       </c>
-      <c r="S210" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T210" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>373</v>
       </c>
@@ -10398,11 +10412,11 @@
       <c r="E211" t="s">
         <v>102</v>
       </c>
-      <c r="S211" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T211" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>373</v>
       </c>
@@ -10415,11 +10429,11 @@
       <c r="E212" t="s">
         <v>102</v>
       </c>
-      <c r="S212" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T212" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>373</v>
       </c>
@@ -10432,11 +10446,11 @@
       <c r="E213" t="s">
         <v>102</v>
       </c>
-      <c r="S213" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T213" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>373</v>
       </c>
@@ -10449,11 +10463,11 @@
       <c r="E214" t="s">
         <v>102</v>
       </c>
-      <c r="S214" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T214" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>373</v>
       </c>
@@ -10466,11 +10480,11 @@
       <c r="E215" t="s">
         <v>102</v>
       </c>
-      <c r="S215" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T215" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>373</v>
       </c>
@@ -10483,11 +10497,11 @@
       <c r="E216" t="s">
         <v>102</v>
       </c>
-      <c r="S216" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T216" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>373</v>
       </c>
@@ -10500,11 +10514,11 @@
       <c r="E217" t="s">
         <v>102</v>
       </c>
-      <c r="S217" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T217" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>373</v>
       </c>
@@ -10517,11 +10531,11 @@
       <c r="E218" t="s">
         <v>102</v>
       </c>
-      <c r="S218" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T218" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>373</v>
       </c>
@@ -10534,11 +10548,11 @@
       <c r="E219" t="s">
         <v>102</v>
       </c>
-      <c r="S219" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T219" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>373</v>
       </c>
@@ -10551,11 +10565,11 @@
       <c r="E220" t="s">
         <v>102</v>
       </c>
-      <c r="S220" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T220" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>373</v>
       </c>
@@ -10568,11 +10582,11 @@
       <c r="E221" t="s">
         <v>102</v>
       </c>
-      <c r="S221" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T221" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>373</v>
       </c>
@@ -10585,11 +10599,11 @@
       <c r="E222" t="s">
         <v>102</v>
       </c>
-      <c r="S222" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T222" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>373</v>
       </c>
@@ -10602,11 +10616,11 @@
       <c r="E223" t="s">
         <v>102</v>
       </c>
-      <c r="S223" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T223" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>373</v>
       </c>
@@ -10619,11 +10633,11 @@
       <c r="E224" t="s">
         <v>102</v>
       </c>
-      <c r="S224" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T224" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>373</v>
       </c>
@@ -10636,11 +10650,11 @@
       <c r="E225" t="s">
         <v>102</v>
       </c>
-      <c r="S225" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T225" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>373</v>
       </c>
@@ -10653,11 +10667,11 @@
       <c r="E226" t="s">
         <v>102</v>
       </c>
-      <c r="S226" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T226" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>373</v>
       </c>
@@ -10670,11 +10684,11 @@
       <c r="E227" t="s">
         <v>102</v>
       </c>
-      <c r="S227" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T227" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>373</v>
       </c>
@@ -10687,11 +10701,11 @@
       <c r="E228" t="s">
         <v>102</v>
       </c>
-      <c r="S228" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T228" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>373</v>
       </c>
@@ -10704,11 +10718,11 @@
       <c r="E229" t="s">
         <v>102</v>
       </c>
-      <c r="S229" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T229" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>373</v>
       </c>
@@ -10721,11 +10735,11 @@
       <c r="E230" t="s">
         <v>102</v>
       </c>
-      <c r="S230" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T230" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>373</v>
       </c>
@@ -10738,11 +10752,11 @@
       <c r="E231" t="s">
         <v>102</v>
       </c>
-      <c r="S231" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T231" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>373</v>
       </c>
@@ -10755,11 +10769,11 @@
       <c r="E232" t="s">
         <v>102</v>
       </c>
-      <c r="S232" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T232" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>373</v>
       </c>
@@ -10772,11 +10786,11 @@
       <c r="E233" t="s">
         <v>102</v>
       </c>
-      <c r="S233" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T233" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>373</v>
       </c>
@@ -10789,11 +10803,11 @@
       <c r="E234" t="s">
         <v>102</v>
       </c>
-      <c r="S234" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T234" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>373</v>
       </c>
@@ -10806,11 +10820,11 @@
       <c r="E235" t="s">
         <v>102</v>
       </c>
-      <c r="S235" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T235" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>373</v>
       </c>
@@ -10823,11 +10837,11 @@
       <c r="E236" t="s">
         <v>102</v>
       </c>
-      <c r="S236" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T236" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>373</v>
       </c>
@@ -10840,11 +10854,11 @@
       <c r="E237" t="s">
         <v>102</v>
       </c>
-      <c r="S237" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T237" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>373</v>
       </c>
@@ -10857,11 +10871,11 @@
       <c r="E238" t="s">
         <v>102</v>
       </c>
-      <c r="S238" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T238" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>373</v>
       </c>
@@ -10874,11 +10888,11 @@
       <c r="E239" t="s">
         <v>102</v>
       </c>
-      <c r="S239" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>373</v>
       </c>
@@ -10891,11 +10905,11 @@
       <c r="E240" t="s">
         <v>102</v>
       </c>
-      <c r="S240" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T240" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>373</v>
       </c>
@@ -10908,11 +10922,11 @@
       <c r="E241" t="s">
         <v>102</v>
       </c>
-      <c r="S241" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T241" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>373</v>
       </c>
@@ -10925,11 +10939,11 @@
       <c r="E242" t="s">
         <v>102</v>
       </c>
-      <c r="S242" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T242" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>373</v>
       </c>
@@ -10942,11 +10956,11 @@
       <c r="E243" t="s">
         <v>102</v>
       </c>
-      <c r="S243" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T243" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>373</v>
       </c>
@@ -10959,11 +10973,11 @@
       <c r="E244" t="s">
         <v>102</v>
       </c>
-      <c r="S244" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T244" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>373</v>
       </c>
@@ -10976,11 +10990,11 @@
       <c r="E245" t="s">
         <v>102</v>
       </c>
-      <c r="S245" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T245" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>373</v>
       </c>
@@ -10993,11 +11007,11 @@
       <c r="E246" t="s">
         <v>102</v>
       </c>
-      <c r="S246" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T246" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>373</v>
       </c>
@@ -11010,11 +11024,11 @@
       <c r="E247" t="s">
         <v>102</v>
       </c>
-      <c r="S247" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T247" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>373</v>
       </c>
@@ -11027,11 +11041,11 @@
       <c r="E248" t="s">
         <v>102</v>
       </c>
-      <c r="S248" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T248" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>373</v>
       </c>
@@ -11044,11 +11058,11 @@
       <c r="E249" t="s">
         <v>102</v>
       </c>
-      <c r="S249" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T249" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>373</v>
       </c>
@@ -11061,11 +11075,11 @@
       <c r="E250" t="s">
         <v>102</v>
       </c>
-      <c r="S250" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T250" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>373</v>
       </c>
@@ -11078,11 +11092,11 @@
       <c r="E251" t="s">
         <v>102</v>
       </c>
-      <c r="S251" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T251" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>373</v>
       </c>
@@ -11095,11 +11109,11 @@
       <c r="E252" t="s">
         <v>102</v>
       </c>
-      <c r="S252" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T252" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>373</v>
       </c>
@@ -11112,11 +11126,11 @@
       <c r="E253" t="s">
         <v>102</v>
       </c>
-      <c r="S253" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T253" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>373</v>
       </c>
@@ -11129,11 +11143,11 @@
       <c r="E254" t="s">
         <v>102</v>
       </c>
-      <c r="S254" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T254" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>373</v>
       </c>
@@ -11146,11 +11160,11 @@
       <c r="E255" t="s">
         <v>102</v>
       </c>
-      <c r="S255" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T255" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>373</v>
       </c>
@@ -11163,11 +11177,11 @@
       <c r="E256" t="s">
         <v>102</v>
       </c>
-      <c r="S256" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T256" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>373</v>
       </c>
@@ -11180,11 +11194,11 @@
       <c r="E257" t="s">
         <v>102</v>
       </c>
-      <c r="S257" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T257" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>373</v>
       </c>
@@ -11197,11 +11211,11 @@
       <c r="E258" t="s">
         <v>102</v>
       </c>
-      <c r="S258" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T258" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>373</v>
       </c>
@@ -11214,11 +11228,11 @@
       <c r="E259" t="s">
         <v>102</v>
       </c>
-      <c r="S259" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T259" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>19</v>
       </c>
@@ -11255,11 +11269,11 @@
       <c r="R260">
         <v>1</v>
       </c>
-      <c r="S260" t="s">
+      <c r="T260" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -11293,11 +11307,11 @@
       <c r="P261" t="s">
         <v>25</v>
       </c>
-      <c r="S261" t="s">
+      <c r="T261" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>19</v>
       </c>
@@ -11331,11 +11345,11 @@
       <c r="P262" t="s">
         <v>25</v>
       </c>
-      <c r="S262" t="s">
+      <c r="T262" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>19</v>
       </c>
@@ -11375,11 +11389,11 @@
       <c r="P263" t="s">
         <v>25</v>
       </c>
-      <c r="S263" t="s">
+      <c r="T263" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -11413,11 +11427,11 @@
       <c r="O264" t="s">
         <v>25</v>
       </c>
-      <c r="S264" t="s">
+      <c r="T264" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>19</v>
       </c>
@@ -11457,11 +11471,11 @@
       <c r="P265" t="s">
         <v>25</v>
       </c>
-      <c r="S265" t="s">
+      <c r="T265" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>19</v>
       </c>
@@ -11498,11 +11512,11 @@
       <c r="R266">
         <v>1</v>
       </c>
-      <c r="S266" t="s">
+      <c r="T266" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>19</v>
       </c>
@@ -11539,11 +11553,11 @@
       <c r="R267">
         <v>1</v>
       </c>
-      <c r="S267" t="s">
+      <c r="T267" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>19</v>
       </c>
@@ -11577,11 +11591,11 @@
       <c r="N268" t="s">
         <v>25</v>
       </c>
-      <c r="S268" t="s">
+      <c r="T268" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -11615,11 +11629,11 @@
       <c r="O269" t="s">
         <v>25</v>
       </c>
-      <c r="S269" t="s">
+      <c r="T269" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -11656,11 +11670,11 @@
       <c r="R270">
         <v>1</v>
       </c>
-      <c r="S270" t="s">
+      <c r="T270" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -11694,11 +11708,11 @@
       <c r="O271" t="s">
         <v>25</v>
       </c>
-      <c r="S271" t="s">
+      <c r="T271" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -11738,11 +11752,11 @@
       <c r="O272" t="s">
         <v>25</v>
       </c>
-      <c r="S272" t="s">
+      <c r="T272" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -11785,11 +11799,11 @@
       <c r="R273">
         <v>1</v>
       </c>
-      <c r="S273" t="s">
+      <c r="T273" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -11826,11 +11840,11 @@
       <c r="P274" t="s">
         <v>25</v>
       </c>
-      <c r="S274" t="s">
+      <c r="T274" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -11870,11 +11884,11 @@
       <c r="P275" t="s">
         <v>25</v>
       </c>
-      <c r="S275" t="s">
+      <c r="T275" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>19</v>
       </c>
@@ -11914,11 +11928,11 @@
       <c r="O276" t="s">
         <v>25</v>
       </c>
-      <c r="S276" t="s">
+      <c r="T276" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>19</v>
       </c>
@@ -11961,11 +11975,11 @@
       <c r="R277">
         <v>1</v>
       </c>
-      <c r="S277" t="s">
+      <c r="T277" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>19</v>
       </c>
@@ -12002,11 +12016,11 @@
       <c r="O278" t="s">
         <v>25</v>
       </c>
-      <c r="S278" t="s">
+      <c r="T278" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>19</v>
       </c>
@@ -12049,11 +12063,11 @@
       <c r="P279" t="s">
         <v>25</v>
       </c>
-      <c r="S279" t="s">
+      <c r="T279" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>19</v>
       </c>
@@ -12087,11 +12101,11 @@
       <c r="N280" t="s">
         <v>25</v>
       </c>
-      <c r="S280" t="s">
+      <c r="T280" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>19</v>
       </c>
@@ -12125,11 +12139,11 @@
       <c r="P281" t="s">
         <v>25</v>
       </c>
-      <c r="S281" t="s">
+      <c r="T281" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>19</v>
       </c>
@@ -12163,11 +12177,11 @@
       <c r="N282" t="s">
         <v>25</v>
       </c>
-      <c r="S282" t="s">
+      <c r="T282" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>19</v>
       </c>
@@ -12201,11 +12215,11 @@
       <c r="P283" t="s">
         <v>25</v>
       </c>
-      <c r="S283" t="s">
+      <c r="T283" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>19</v>
       </c>
@@ -12248,11 +12262,11 @@
       <c r="P284" t="s">
         <v>25</v>
       </c>
-      <c r="S284" t="s">
+      <c r="T284" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>19</v>
       </c>
@@ -12289,11 +12303,11 @@
       <c r="R285">
         <v>2</v>
       </c>
-      <c r="S285" t="s">
+      <c r="T285" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -12330,11 +12344,11 @@
       <c r="R286">
         <v>1</v>
       </c>
-      <c r="S286" t="s">
+      <c r="T286" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -12377,11 +12391,11 @@
       <c r="R287">
         <v>1</v>
       </c>
-      <c r="S287" t="s">
+      <c r="T287" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -12424,11 +12438,11 @@
       <c r="R288">
         <v>1</v>
       </c>
-      <c r="S288" t="s">
+      <c r="T288" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -12465,11 +12479,11 @@
       <c r="P289" t="s">
         <v>25</v>
       </c>
-      <c r="S289" t="s">
+      <c r="T289" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>19</v>
       </c>
@@ -12506,11 +12520,11 @@
       <c r="R290">
         <v>2</v>
       </c>
-      <c r="S290" t="s">
+      <c r="T290" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>19</v>
       </c>
@@ -12544,11 +12558,11 @@
       <c r="P291" t="s">
         <v>25</v>
       </c>
-      <c r="S291" t="s">
+      <c r="T291" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>19</v>
       </c>
@@ -12582,11 +12596,11 @@
       <c r="R292">
         <v>2</v>
       </c>
-      <c r="S292" t="s">
+      <c r="T292" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>19</v>
       </c>
@@ -12617,11 +12631,11 @@
       <c r="P293" t="s">
         <v>25</v>
       </c>
-      <c r="S293" t="s">
+      <c r="T293" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>19</v>
       </c>
@@ -12652,11 +12666,11 @@
       <c r="P294" t="s">
         <v>25</v>
       </c>
-      <c r="S294" t="s">
+      <c r="T294" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>19</v>
       </c>
@@ -12687,11 +12701,11 @@
       <c r="N295" t="s">
         <v>25</v>
       </c>
-      <c r="S295" t="s">
+      <c r="T295" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>19</v>
       </c>
@@ -12731,11 +12745,11 @@
       <c r="P296" t="s">
         <v>25</v>
       </c>
-      <c r="S296" t="s">
+      <c r="T296" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>19</v>
       </c>
@@ -12766,11 +12780,11 @@
       <c r="O297" t="s">
         <v>25</v>
       </c>
-      <c r="S297" t="s">
+      <c r="T297" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -12801,11 +12815,11 @@
       <c r="P298" t="s">
         <v>25</v>
       </c>
-      <c r="S298" t="s">
+      <c r="T298" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>19</v>
       </c>
@@ -12836,11 +12850,11 @@
       <c r="O299" t="s">
         <v>25</v>
       </c>
-      <c r="S299" t="s">
+      <c r="T299" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -12877,11 +12891,11 @@
       <c r="R300">
         <v>3</v>
       </c>
-      <c r="S300" t="s">
+      <c r="T300" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>19</v>
       </c>
@@ -12918,11 +12932,11 @@
       <c r="R301">
         <v>2</v>
       </c>
-      <c r="S301" t="s">
+      <c r="T301" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>19</v>
       </c>
@@ -12962,11 +12976,11 @@
       <c r="R302">
         <v>1</v>
       </c>
-      <c r="S302" t="s">
+      <c r="T302" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>19</v>
       </c>
@@ -13003,11 +13017,11 @@
       <c r="R303">
         <v>2</v>
       </c>
-      <c r="S303" t="s">
+      <c r="T303" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>19</v>
       </c>
@@ -13047,11 +13061,11 @@
       <c r="R304">
         <v>3</v>
       </c>
-      <c r="S304" t="s">
+      <c r="T304" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>19</v>
       </c>
@@ -13086,10 +13100,13 @@
         <v>25</v>
       </c>
       <c r="S305" t="s">
+        <v>25</v>
+      </c>
+      <c r="T305" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>19</v>
       </c>
@@ -13129,11 +13146,11 @@
       <c r="N306" t="s">
         <v>25</v>
       </c>
-      <c r="S306" t="s">
+      <c r="T306" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>19</v>
       </c>
@@ -13170,11 +13187,11 @@
       <c r="N307" t="s">
         <v>25</v>
       </c>
-      <c r="S307" t="s">
+      <c r="T307" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>19</v>
       </c>
@@ -13208,11 +13225,11 @@
       <c r="O308" t="s">
         <v>25</v>
       </c>
-      <c r="S308" t="s">
+      <c r="T308" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>19</v>
       </c>
@@ -13247,10 +13264,13 @@
         <v>25</v>
       </c>
       <c r="S309" t="s">
+        <v>25</v>
+      </c>
+      <c r="T309" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>19</v>
       </c>
@@ -13287,11 +13307,11 @@
       <c r="O310" t="s">
         <v>25</v>
       </c>
-      <c r="S310" t="s">
+      <c r="T310" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>19</v>
       </c>
@@ -13340,11 +13360,11 @@
       <c r="P311" t="s">
         <v>25</v>
       </c>
-      <c r="S311" t="s">
+      <c r="T311" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -13382,10 +13402,13 @@
         <v>25</v>
       </c>
       <c r="S312" t="s">
+        <v>25</v>
+      </c>
+      <c r="T312" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -13419,11 +13442,11 @@
       <c r="P313" t="s">
         <v>25</v>
       </c>
-      <c r="S313" t="s">
+      <c r="T313" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>19</v>
       </c>
@@ -13464,10 +13487,13 @@
         <v>25</v>
       </c>
       <c r="S314" t="s">
+        <v>25</v>
+      </c>
+      <c r="T314" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>19</v>
       </c>
@@ -13507,11 +13533,11 @@
       <c r="P315" t="s">
         <v>25</v>
       </c>
-      <c r="S315" t="s">
+      <c r="T315" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>19</v>
       </c>
@@ -13552,10 +13578,13 @@
         <v>25</v>
       </c>
       <c r="S316" t="s">
+        <v>25</v>
+      </c>
+      <c r="T316" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>19</v>
       </c>
@@ -13592,11 +13621,11 @@
       <c r="N317" t="s">
         <v>25</v>
       </c>
-      <c r="S317" t="s">
+      <c r="T317" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>19</v>
       </c>
@@ -13633,11 +13662,11 @@
       <c r="N318" t="s">
         <v>25</v>
       </c>
-      <c r="S318" t="s">
+      <c r="T318" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>19</v>
       </c>
@@ -13674,11 +13703,11 @@
       <c r="N319" t="s">
         <v>25</v>
       </c>
-      <c r="S319" t="s">
+      <c r="T319" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>19</v>
       </c>
@@ -13715,11 +13744,11 @@
       <c r="O320" t="s">
         <v>25</v>
       </c>
-      <c r="S320" t="s">
+      <c r="T320" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>19</v>
       </c>
@@ -13753,11 +13782,11 @@
       <c r="O321" t="s">
         <v>25</v>
       </c>
-      <c r="S321" t="s">
+      <c r="T321" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>19</v>
       </c>
@@ -13791,11 +13820,11 @@
       <c r="O322" t="s">
         <v>25</v>
       </c>
-      <c r="S322" t="s">
+      <c r="T322" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>19</v>
       </c>
@@ -13835,11 +13864,11 @@
       <c r="P323" t="s">
         <v>25</v>
       </c>
-      <c r="S323" t="s">
+      <c r="T323" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -13873,11 +13902,11 @@
       <c r="P324" t="s">
         <v>25</v>
       </c>
-      <c r="S324" t="s">
+      <c r="T324" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>19</v>
       </c>
@@ -13918,10 +13947,13 @@
         <v>25</v>
       </c>
       <c r="S325" t="s">
+        <v>25</v>
+      </c>
+      <c r="T325" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>19</v>
       </c>
@@ -13970,11 +14002,11 @@
       <c r="P326" t="s">
         <v>25</v>
       </c>
-      <c r="S326" t="s">
+      <c r="T326" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>19</v>
       </c>
@@ -14014,11 +14046,11 @@
       <c r="P327" t="s">
         <v>25</v>
       </c>
-      <c r="S327" t="s">
+      <c r="T327" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>19</v>
       </c>
@@ -14059,10 +14091,13 @@
         <v>25</v>
       </c>
       <c r="S328" t="s">
+        <v>25</v>
+      </c>
+      <c r="T328" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>19</v>
       </c>
@@ -14096,11 +14131,11 @@
       <c r="N329" t="s">
         <v>25</v>
       </c>
-      <c r="S329" t="s">
+      <c r="T329" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>19</v>
       </c>
@@ -14137,11 +14172,11 @@
       <c r="N330" t="s">
         <v>25</v>
       </c>
-      <c r="S330" t="s">
+      <c r="T330" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>19</v>
       </c>
@@ -14178,11 +14213,11 @@
       <c r="N331" t="s">
         <v>25</v>
       </c>
-      <c r="S331" t="s">
+      <c r="T331" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>19</v>
       </c>
@@ -14216,11 +14251,11 @@
       <c r="O332" t="s">
         <v>25</v>
       </c>
-      <c r="S332" t="s">
+      <c r="T332" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>19</v>
       </c>
@@ -14255,10 +14290,13 @@
         <v>25</v>
       </c>
       <c r="S333" t="s">
+        <v>25</v>
+      </c>
+      <c r="T333" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>19</v>
       </c>
@@ -14292,11 +14330,11 @@
       <c r="O334" t="s">
         <v>25</v>
       </c>
-      <c r="S334" t="s">
+      <c r="T334" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>19</v>
       </c>
@@ -14330,11 +14368,11 @@
       <c r="P335" t="s">
         <v>25</v>
       </c>
-      <c r="S335" t="s">
+      <c r="T335" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>19</v>
       </c>
@@ -14369,10 +14407,13 @@
         <v>25</v>
       </c>
       <c r="S336" t="s">
+        <v>25</v>
+      </c>
+      <c r="T336" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>19</v>
       </c>
@@ -14415,11 +14456,11 @@
       <c r="O337" t="s">
         <v>25</v>
       </c>
-      <c r="S337" t="s">
+      <c r="T337" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>19</v>
       </c>
@@ -14459,11 +14500,11 @@
       <c r="P338" t="s">
         <v>25</v>
       </c>
-      <c r="S338" t="s">
+      <c r="T338" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>19</v>
       </c>
@@ -14512,11 +14553,11 @@
       <c r="P339" t="s">
         <v>25</v>
       </c>
-      <c r="S339" t="s">
+      <c r="T339" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>373</v>
       </c>
@@ -14529,14 +14570,11 @@
       <c r="E340" t="s">
         <v>102</v>
       </c>
-      <c r="G340" t="s">
-        <v>373</v>
-      </c>
-      <c r="S340" t="s">
+      <c r="T340" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>373</v>
       </c>
@@ -14549,14 +14587,11 @@
       <c r="E341" t="s">
         <v>102</v>
       </c>
-      <c r="G341" t="s">
-        <v>373</v>
-      </c>
-      <c r="S341" t="s">
+      <c r="T341" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>373</v>
       </c>
@@ -14569,14 +14604,11 @@
       <c r="E342" t="s">
         <v>102</v>
       </c>
-      <c r="G342" t="s">
-        <v>373</v>
-      </c>
-      <c r="S342" t="s">
+      <c r="T342" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>373</v>
       </c>
@@ -14589,14 +14621,11 @@
       <c r="E343" t="s">
         <v>102</v>
       </c>
-      <c r="G343" t="s">
-        <v>373</v>
-      </c>
-      <c r="S343" t="s">
+      <c r="T343" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>373</v>
       </c>
@@ -14609,14 +14638,11 @@
       <c r="E344" t="s">
         <v>102</v>
       </c>
-      <c r="G344" t="s">
-        <v>373</v>
-      </c>
-      <c r="S344" t="s">
+      <c r="T344" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>373</v>
       </c>
@@ -14629,14 +14655,11 @@
       <c r="E345" t="s">
         <v>102</v>
       </c>
-      <c r="G345" t="s">
-        <v>373</v>
-      </c>
-      <c r="S345" t="s">
+      <c r="T345" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>373</v>
       </c>
@@ -14649,14 +14672,11 @@
       <c r="E346" t="s">
         <v>102</v>
       </c>
-      <c r="G346" t="s">
-        <v>373</v>
-      </c>
-      <c r="S346" t="s">
+      <c r="T346" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>373</v>
       </c>
@@ -14669,14 +14689,11 @@
       <c r="E347" t="s">
         <v>102</v>
       </c>
-      <c r="G347" t="s">
-        <v>373</v>
-      </c>
-      <c r="S347" t="s">
+      <c r="T347" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>373</v>
       </c>
@@ -14689,14 +14706,11 @@
       <c r="E348" t="s">
         <v>102</v>
       </c>
-      <c r="G348" t="s">
-        <v>373</v>
-      </c>
-      <c r="S348" t="s">
+      <c r="T348" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>373</v>
       </c>
@@ -14709,14 +14723,11 @@
       <c r="E349" t="s">
         <v>102</v>
       </c>
-      <c r="G349" t="s">
-        <v>373</v>
-      </c>
-      <c r="S349" t="s">
+      <c r="T349" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>373</v>
       </c>
@@ -14729,14 +14740,11 @@
       <c r="E350" t="s">
         <v>102</v>
       </c>
-      <c r="G350" t="s">
-        <v>373</v>
-      </c>
-      <c r="S350" t="s">
+      <c r="T350" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>373</v>
       </c>
@@ -14749,14 +14757,11 @@
       <c r="E351" t="s">
         <v>102</v>
       </c>
-      <c r="G351" t="s">
-        <v>373</v>
-      </c>
-      <c r="S351" t="s">
+      <c r="T351" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>373</v>
       </c>
@@ -14769,14 +14774,11 @@
       <c r="E352" t="s">
         <v>102</v>
       </c>
-      <c r="G352" t="s">
-        <v>373</v>
-      </c>
-      <c r="S352" t="s">
+      <c r="T352" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>373</v>
       </c>
@@ -14789,14 +14791,11 @@
       <c r="E353" t="s">
         <v>102</v>
       </c>
-      <c r="G353" t="s">
-        <v>373</v>
-      </c>
-      <c r="S353" t="s">
+      <c r="T353" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>373</v>
       </c>
@@ -14809,14 +14808,11 @@
       <c r="E354" t="s">
         <v>102</v>
       </c>
-      <c r="G354" t="s">
-        <v>373</v>
-      </c>
-      <c r="S354" t="s">
+      <c r="T354" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -14829,14 +14825,11 @@
       <c r="E355" t="s">
         <v>102</v>
       </c>
-      <c r="G355" t="s">
-        <v>373</v>
-      </c>
-      <c r="S355" t="s">
+      <c r="T355" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>373</v>
       </c>
@@ -14849,14 +14842,11 @@
       <c r="E356" t="s">
         <v>102</v>
       </c>
-      <c r="G356" t="s">
-        <v>373</v>
-      </c>
-      <c r="S356" t="s">
+      <c r="T356" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>373</v>
       </c>
@@ -14869,14 +14859,11 @@
       <c r="E357" t="s">
         <v>102</v>
       </c>
-      <c r="G357" t="s">
-        <v>373</v>
-      </c>
-      <c r="S357" t="s">
+      <c r="T357" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>373</v>
       </c>
@@ -14889,14 +14876,11 @@
       <c r="E358" t="s">
         <v>102</v>
       </c>
-      <c r="G358" t="s">
-        <v>373</v>
-      </c>
-      <c r="S358" t="s">
+      <c r="T358" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>373</v>
       </c>
@@ -14909,14 +14893,11 @@
       <c r="E359" t="s">
         <v>102</v>
       </c>
-      <c r="G359" t="s">
-        <v>373</v>
-      </c>
-      <c r="S359" t="s">
+      <c r="T359" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>373</v>
       </c>
@@ -14929,14 +14910,11 @@
       <c r="E360" t="s">
         <v>102</v>
       </c>
-      <c r="G360" t="s">
-        <v>373</v>
-      </c>
-      <c r="S360" t="s">
+      <c r="T360" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>373</v>
       </c>
@@ -14949,14 +14927,11 @@
       <c r="E361" t="s">
         <v>102</v>
       </c>
-      <c r="G361" t="s">
-        <v>373</v>
-      </c>
-      <c r="S361" t="s">
+      <c r="T361" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>373</v>
       </c>
@@ -14969,14 +14944,11 @@
       <c r="E362" t="s">
         <v>102</v>
       </c>
-      <c r="G362" t="s">
-        <v>373</v>
-      </c>
-      <c r="S362" t="s">
+      <c r="T362" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>373</v>
       </c>
@@ -14989,14 +14961,11 @@
       <c r="E363" t="s">
         <v>102</v>
       </c>
-      <c r="G363" t="s">
-        <v>373</v>
-      </c>
-      <c r="S363" t="s">
+      <c r="T363" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>373</v>
       </c>
@@ -15009,14 +14978,12 @@
       <c r="E364" t="s">
         <v>102</v>
       </c>
-      <c r="G364" t="s">
-        <v>373</v>
-      </c>
-      <c r="S364" t="s">
+      <c r="T364" t="s">
         <v>422</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/scripts/cards.xlsx
+++ b/scripts/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cief/projects/wyrmsearch/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8204D07C-0087-E049-8BD9-1EB9EFF762BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D1575-88DD-7C45-B22E-C54A3EF704B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="606">
   <si>
     <t>type</t>
   </si>
@@ -1678,9 +1678,6 @@
     <t>Pay [CaveCard][CaveCard] to play a dragon from your hand or the display for free.</t>
   </si>
   <si>
-    <t>Gain +[VP-8] if there are at least 2 hatchlings on your player mat.</t>
-  </si>
-  <si>
     <t>Ignore this dragon's cost if you have played at least 2 hatchlings. Gain [Milk][Milk]. All opponents gain [Milk].</t>
   </si>
   <si>
@@ -1792,9 +1789,6 @@
     <t>Either train any *fledgling* 1x for free, or lay 1 [Egg] for each fully trained *fledgling*.</t>
   </si>
   <si>
-    <t>Ignore this dragon's cost if you have played at least 2 *fledgling*s. Train any *fledgling* 1x for free.</t>
-  </si>
-  <si>
     <t>Gain [DragonGuild] for each fully trained *fledgling* on your player mat.</t>
   </si>
   <si>
@@ -1838,6 +1832,15 @@
   </si>
   <si>
     <t>ignoreCost</t>
+  </si>
+  <si>
+    <t>Gain +[VP-8] if there are at least 2 *hatchlings*D312 on your player mat.</t>
+  </si>
+  <si>
+    <t>Ignore this dragon's cost if you have played at least 2 *fledglings*. Train any *fledgling* 1x for free.</t>
+  </si>
+  <si>
+    <t>Pay [AnyResource][Egg], then excavate 1 space for free with [CaveCard] from your hand.</t>
   </si>
 </sst>
 </file>
@@ -2279,15 +2282,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I331" sqref="I331"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D364" sqref="D364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="107.1640625" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" customWidth="1"/>
@@ -2352,7 +2355,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>18</v>
@@ -7207,7 +7210,7 @@
         <v>264</v>
       </c>
       <c r="D120" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E120" t="s">
         <v>108</v>
@@ -7430,7 +7433,7 @@
         <v>272</v>
       </c>
       <c r="D125" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E125" t="s">
         <v>108</v>
@@ -7641,7 +7644,7 @@
         <v>281</v>
       </c>
       <c r="D130" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E130" t="s">
         <v>108</v>
@@ -7726,7 +7729,7 @@
         <v>284</v>
       </c>
       <c r="D132" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E132" t="s">
         <v>108</v>
@@ -7779,7 +7782,7 @@
         <v>285</v>
       </c>
       <c r="D133" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E133" t="s">
         <v>108</v>
@@ -7876,7 +7879,7 @@
         <v>287</v>
       </c>
       <c r="D135" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E135" t="s">
         <v>108</v>
@@ -10798,7 +10801,7 @@
         <v>50</v>
       </c>
       <c r="D234" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E234" t="s">
         <v>102</v>
@@ -10815,7 +10818,7 @@
         <v>51</v>
       </c>
       <c r="D235" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E235" t="s">
         <v>102</v>
@@ -11266,7 +11269,7 @@
       <c r="N260" t="s">
         <v>25</v>
       </c>
-      <c r="R260">
+      <c r="Q260">
         <v>1</v>
       </c>
       <c r="T260" t="s">
@@ -11342,7 +11345,7 @@
       <c r="J262">
         <v>1</v>
       </c>
-      <c r="P262" t="s">
+      <c r="N262" t="s">
         <v>25</v>
       </c>
       <c r="T262" t="s">
@@ -11527,7 +11530,7 @@
         <v>434</v>
       </c>
       <c r="D267" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E267" t="s">
         <v>22</v>
@@ -11837,9 +11840,6 @@
       <c r="N274" t="s">
         <v>25</v>
       </c>
-      <c r="P274" t="s">
-        <v>25</v>
-      </c>
       <c r="T274" t="s">
         <v>422</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>536</v>
       </c>
       <c r="E288" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -12456,7 +12456,7 @@
         <v>537</v>
       </c>
       <c r="E289" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="F289">
         <v>1</v>
@@ -12497,7 +12497,7 @@
         <v>538</v>
       </c>
       <c r="E290" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -12538,7 +12538,7 @@
         <v>539</v>
       </c>
       <c r="E291" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -12716,7 +12716,7 @@
         <v>468</v>
       </c>
       <c r="D296" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E296" t="s">
         <v>108</v>
@@ -12906,7 +12906,7 @@
         <v>473</v>
       </c>
       <c r="D301" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E301" t="s">
         <v>22</v>
@@ -12991,7 +12991,7 @@
         <v>475</v>
       </c>
       <c r="D303" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E303" t="s">
         <v>22</v>
@@ -13032,7 +13032,7 @@
         <v>476</v>
       </c>
       <c r="D304" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E304" t="s">
         <v>22</v>
@@ -13161,7 +13161,7 @@
         <v>480</v>
       </c>
       <c r="D307" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E307" t="s">
         <v>102</v>
@@ -13202,10 +13202,10 @@
         <v>481</v>
       </c>
       <c r="D308" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E308" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F308">
         <v>5</v>
@@ -13240,7 +13240,7 @@
         <v>482</v>
       </c>
       <c r="D309" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E309" t="s">
         <v>102</v>
@@ -13322,7 +13322,7 @@
         <v>484</v>
       </c>
       <c r="D311" t="s">
-        <v>551</v>
+        <v>603</v>
       </c>
       <c r="E311" t="s">
         <v>108</v>
@@ -13375,7 +13375,7 @@
         <v>485</v>
       </c>
       <c r="D312" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E312" t="s">
         <v>102</v>
@@ -13419,7 +13419,7 @@
         <v>486</v>
       </c>
       <c r="D313" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E313" t="s">
         <v>157</v>
@@ -13457,10 +13457,10 @@
         <v>487</v>
       </c>
       <c r="D314" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E314" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F314">
         <v>1</v>
@@ -13507,7 +13507,7 @@
         <v>489</v>
       </c>
       <c r="E315" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -13548,7 +13548,7 @@
         <v>490</v>
       </c>
       <c r="D316" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="E316" t="s">
         <v>22</v>
@@ -13595,10 +13595,10 @@
         <v>491</v>
       </c>
       <c r="D317" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E317" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="F317">
         <v>2</v>
@@ -13636,7 +13636,7 @@
         <v>492</v>
       </c>
       <c r="D318" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E318" t="s">
         <v>22</v>
@@ -13677,7 +13677,7 @@
         <v>493</v>
       </c>
       <c r="D319" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E319" t="s">
         <v>102</v>
@@ -13718,7 +13718,7 @@
         <v>494</v>
       </c>
       <c r="D320" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E320" t="s">
         <v>22</v>
@@ -13759,7 +13759,7 @@
         <v>495</v>
       </c>
       <c r="D321" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E321" t="s">
         <v>22</v>
@@ -13797,7 +13797,7 @@
         <v>496</v>
       </c>
       <c r="D322" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E322" t="s">
         <v>157</v>
@@ -13835,7 +13835,7 @@
         <v>497</v>
       </c>
       <c r="D323" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E323" t="s">
         <v>102</v>
@@ -13879,7 +13879,7 @@
         <v>498</v>
       </c>
       <c r="D324" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E324" t="s">
         <v>102</v>
@@ -13917,7 +13917,7 @@
         <v>499</v>
       </c>
       <c r="D325" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E325" t="s">
         <v>157</v>
@@ -13964,7 +13964,7 @@
         <v>500</v>
       </c>
       <c r="D326" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E326" t="s">
         <v>108</v>
@@ -14017,10 +14017,10 @@
         <v>501</v>
       </c>
       <c r="D327" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E327" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="F327">
         <v>4</v>
@@ -14064,7 +14064,7 @@
         <v>503</v>
       </c>
       <c r="E328" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -14108,7 +14108,7 @@
         <v>504</v>
       </c>
       <c r="D329" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E329" t="s">
         <v>102</v>
@@ -14146,7 +14146,7 @@
         <v>505</v>
       </c>
       <c r="D330" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E330" t="s">
         <v>157</v>
@@ -14187,7 +14187,7 @@
         <v>506</v>
       </c>
       <c r="D331" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E331" t="s">
         <v>157</v>
@@ -14228,7 +14228,7 @@
         <v>507</v>
       </c>
       <c r="D332" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E332" t="s">
         <v>157</v>
@@ -14266,7 +14266,7 @@
         <v>508</v>
       </c>
       <c r="D333" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E333" t="s">
         <v>22</v>
@@ -14307,7 +14307,7 @@
         <v>509</v>
       </c>
       <c r="D334" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E334" t="s">
         <v>157</v>
@@ -14345,7 +14345,7 @@
         <v>510</v>
       </c>
       <c r="D335" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E335" t="s">
         <v>102</v>
@@ -14383,7 +14383,7 @@
         <v>511</v>
       </c>
       <c r="D336" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E336" t="s">
         <v>157</v>
@@ -14471,7 +14471,7 @@
         <v>514</v>
       </c>
       <c r="D338" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E338" t="s">
         <v>22</v>
@@ -14515,7 +14515,7 @@
         <v>515</v>
       </c>
       <c r="D339" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E339" t="s">
         <v>108</v>
@@ -14565,7 +14565,7 @@
         <v>76</v>
       </c>
       <c r="D340" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E340" t="s">
         <v>102</v>
@@ -14582,7 +14582,7 @@
         <v>77</v>
       </c>
       <c r="D341" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E341" t="s">
         <v>102</v>
@@ -14599,7 +14599,7 @@
         <v>78</v>
       </c>
       <c r="D342" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E342" t="s">
         <v>102</v>
@@ -14616,7 +14616,7 @@
         <v>79</v>
       </c>
       <c r="D343" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E343" t="s">
         <v>102</v>
@@ -14633,7 +14633,7 @@
         <v>80</v>
       </c>
       <c r="D344" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E344" t="s">
         <v>102</v>
@@ -14650,7 +14650,7 @@
         <v>81</v>
       </c>
       <c r="D345" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E345" t="s">
         <v>102</v>
@@ -14684,7 +14684,7 @@
         <v>83</v>
       </c>
       <c r="D347" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E347" t="s">
         <v>102</v>
@@ -14701,7 +14701,7 @@
         <v>84</v>
       </c>
       <c r="D348" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E348" t="s">
         <v>102</v>
@@ -14820,7 +14820,7 @@
         <v>91</v>
       </c>
       <c r="D355" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E355" t="s">
         <v>102</v>
@@ -14871,7 +14871,7 @@
         <v>94</v>
       </c>
       <c r="D358" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E358" t="s">
         <v>102</v>
@@ -14888,7 +14888,7 @@
         <v>95</v>
       </c>
       <c r="D359" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E359" t="s">
         <v>102</v>
@@ -14905,7 +14905,7 @@
         <v>96</v>
       </c>
       <c r="D360" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E360" t="s">
         <v>102</v>
@@ -14922,7 +14922,7 @@
         <v>97</v>
       </c>
       <c r="D361" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E361" t="s">
         <v>102</v>
@@ -14939,7 +14939,7 @@
         <v>98</v>
       </c>
       <c r="D362" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E362" t="s">
         <v>102</v>
@@ -14956,7 +14956,7 @@
         <v>99</v>
       </c>
       <c r="D363" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="E363" t="s">
         <v>102</v>
@@ -14973,7 +14973,7 @@
         <v>100</v>
       </c>
       <c r="D364" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E364" t="s">
         <v>102</v>
